--- a/learn/tiedaoworst.xlsx
+++ b/learn/tiedaoworst.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R\R_graphics_cookbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R\R_graphics_cookbook\learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,202 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+  <si>
+    <t>沁言子</t>
+  </si>
+  <si>
+    <t>看片会举办过了，电影里有房祖名，而且戏份很多，片方一直隐瞒未作任何宣传，这是欺骗大众吧？！不好意思，拒绝！柯震东在小时代镜头被删光，房祖名还有着主演的戏份，呵呵。。。</t>
+  </si>
+  <si>
+    <t>苏铭年</t>
+  </si>
+  <si>
+    <t>看了之后仿佛见了鬼</t>
+  </si>
+  <si>
+    <t>浅唯笑</t>
+  </si>
+  <si>
+    <t>媛直=一星</t>
+  </si>
+  <si>
+    <t>影</t>
+  </si>
+  <si>
+    <t>无言以对</t>
+  </si>
+  <si>
+    <t>黄金书架</t>
+  </si>
+  <si>
+    <t>虽然是王凯脑残粉我也不能原谅这片子有房祖名。完全是欺骗观众。对不起，一张票我都不会买，不然对不起我刷了无数遍的湄公河。【王凯只是四番镜头没几个却天天跑路演跑的累死。其他主演是死的吗。。哦，别人都忙就他闲吗？他明明有剧在拍啊。。敢不敢让吸毒的站出来哦真心一生黑</t>
+  </si>
+  <si>
+    <t>李开心</t>
+  </si>
+  <si>
+    <t>成龙的水军比郭敬明多。你们真不要逼脸</t>
+  </si>
+  <si>
+    <t>小烨</t>
+  </si>
+  <si>
+    <t>成龙夹带私货。剧情生硬，对白做作。全片最好看的是王凯和他的手。</t>
+  </si>
+  <si>
+    <t>冰月之痕</t>
+  </si>
+  <si>
+    <t>3星，去头掐尾标准成式喜剧，笑点蛮多的，很阖家欢，剧情也通顺流畅。缺点是某些演员台词不太过关，群戏太吵，还有港台明星真音上阵我直接跪了 PS：wuli韬韬演技居然比想象中好，虽然眼睛过于妖娆，台词功底一般但是明显动作是流畅的，演技最差是妈妈我要回家的王大陆</t>
+  </si>
+  <si>
+    <t>瓦力</t>
+  </si>
+  <si>
+    <t>成龙带着房祖名演“红色经典”，意图太明显了。一部抗日神剧倾向严重的动作喜剧却如此笨重、无聊、冗长、弱智，高潮戏没完没了尿点满布呵欠连天，好久没看过如此难看的火车动作戏了，倒不是说《智取威虎山》有多好，但两者一比确实多方面高下立现。丁晟再见。</t>
+  </si>
+  <si>
+    <t>文白</t>
+  </si>
+  <si>
+    <t>真的不是潘长江导演的吗？这不科学啊！</t>
+  </si>
+  <si>
+    <t>73号居民</t>
+  </si>
+  <si>
+    <t>认认真真去抗日，欢欢喜喜去送死，挺好。</t>
+  </si>
+  <si>
+    <t>takoda</t>
+  </si>
+  <si>
+    <t>西边的太阳就要落山了 微山湖边静悄悄</t>
+  </si>
+  <si>
+    <t>皮蛋瘦肉粥</t>
+  </si>
+  <si>
+    <t>从龙叔的那声“duang”开始才开始有点入戏</t>
+  </si>
+  <si>
+    <t>地表最强范五五</t>
+  </si>
+  <si>
+    <t>把抗日剧弄成喜剧，能不能严肃点</t>
+  </si>
+  <si>
+    <t>Di-dar</t>
+  </si>
+  <si>
+    <t>提前观影归来，比想象中好。虽然有很多逻辑上的漏洞，但总体娱乐性较强，适合全家老小圣诞节观看，当然，很多包袱都是过时的网络段子。成龙大哥实在是不容易，这么大岁数还那么拼。wuli滔滔荧幕首秀不太尽如人意，台词功底有待加强。</t>
+  </si>
+  <si>
+    <t>pylee</t>
+  </si>
+  <si>
+    <t>整个基调还是比较轻松欢乐的，笑点也算较多也逗趣，很有成龙大哥的风格在，不是传统的红色抗日战争片，故事前面部分有点太长，整个节奏的把握比较拖沓了点，如果可以更紧凑一点会比较好。</t>
+  </si>
+  <si>
+    <t>斯坦利•赵</t>
+  </si>
+  <si>
+    <t>1.典型的成龙电影，连搞笑都是套路 2.房祖名戏份很重，而且表现还不错 3.老干部王凯真帅，好演员喜剧出彩 4.日军设置太低级，纯粹恶搞小丑化 5.中规中矩无亮点，适合过年全家欢 6.最后彩蛋很惊喜，卖个关子少说话</t>
+  </si>
+  <si>
+    <t>红军万岁！八路军万岁！抗日胜利万岁！大哥万岁！龙太子万岁！龙太子戏份是二番！</t>
+  </si>
+  <si>
+    <t>chongbei</t>
+  </si>
+  <si>
+    <t>原来是父爱片，红色护体，祖名复出。肢体喜剧几近废弃，笑点依赖于道具、嘴炮和日本人犯蠢。成龙一脸疲态，让人心酸。</t>
+  </si>
+  <si>
+    <t>二月鸟语</t>
+  </si>
+  <si>
+    <t>···内地导演拍红色主旋律真的不如香港导演厉害···</t>
+  </si>
+  <si>
+    <t>wujingdabao</t>
+  </si>
+  <si>
+    <t>糙的让我有点生气了</t>
+  </si>
+  <si>
+    <t>华盛顿樱桃树</t>
+  </si>
+  <si>
+    <t>故事很完整，但代价是节奏有点拖了，丁晟居然是国内最会用配乐的导演之一，故事节奏和配乐没合奏上，说白了还是素材取舍不够狠，再精简点会更好，但也足够精彩了。成龙杂耍收敛不少，黄子韬还行。</t>
+  </si>
+  <si>
+    <t>永康西施</t>
+  </si>
+  <si>
+    <t>全程尴尬，别把弱智当幽默。没有让人关心的人物，全是扁平的，鬼子更加脸谱化。火车的动作戏看久了都疲劳了。主旋律改编神形兼无。可惜了一群大牌做纸板人，到最后即使他们死我也不会在乎。</t>
+  </si>
+  <si>
+    <t>李小泡</t>
+  </si>
+  <si>
+    <t>又是这种【鬼子是智障，八路各个都神通广大，无所不能，上天入地，把日本鬼子当猴耍的愚民片】，你们这么牛逼，为什么抗日战争打了8年！多学学国外的战争片多去揭示战争有多残酷，别整天瞎编乱造让未成年人觉得战争很好玩。【丑化敌人，就是丑化自己，你被这么蠢的人打8年，那你岂不是更蠢】</t>
+  </si>
+  <si>
+    <t>大瘦瘦</t>
+  </si>
+  <si>
+    <t>抗日神剧但结尾又反神剧，房祖名当仁不让的男二号，王凯与池内博之有个生殖器的对撞，说明还是中国人的更硬</t>
+  </si>
+  <si>
+    <t>YY糖罐子</t>
+  </si>
+  <si>
+    <t>如一切的成龙电影 爱喊口号正派到无聊 而且笑点过时 这片的副标题和封神演义一样 应该叫可怜天下父母心</t>
+  </si>
+  <si>
+    <t>宋茜杨洋</t>
+  </si>
+  <si>
+    <t>看到了芒果娱乐出品。给一星</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>别太认真，当喜剧片都就好</t>
+  </si>
+  <si>
+    <t>二火山</t>
+  </si>
+  <si>
+    <t>看过成龙最烂的电影，还是他拿到奥斯卡后的第一部，好讽刺！废台词、废桥段一抓一大把，前半部分叙事莫名其妙，对话像是情景剧，山东大地上港普掺杂着台普、京普，结尾炸桥的动作戏更是冗长到令人发指。丁晟靠吾先生积攒的那点口碑毁得荡然无存。老爹带着扶不起的阿斗慢慢复出，只是可怜了华仔的彩蛋。</t>
+  </si>
+  <si>
+    <t>Ingrid</t>
+  </si>
+  <si>
+    <t>很好看的电影阿，情节紧凑，特效真实，演员演的也好，王凯多帅阿</t>
+  </si>
+  <si>
+    <t>亚斯兰小龙女</t>
+  </si>
+  <si>
+    <t>究竟之前圈内一直在传这片质量还不错的谣言是怎么来的……烂得都不想评价了。果然离开了成龙的解救吾先生依旧是丁晟目前最好的作品。希望他们早点明白这个道理，放过对方吧，我对丁晟还是有很大期待的。ps：成龙大哥父爱如山，毕竟还是个拼爹的年代，柯震东哭哭惹</t>
+  </si>
+  <si>
+    <t>马 夋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马 夋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,8 +260,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,12 +550,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.234375" customWidth="1"/>
+    <col min="2" max="2" width="29.703125" customWidth="1"/>
+    <col min="3" max="3" width="23.234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>42725</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42713</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42716</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42718</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42720</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42722</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42723</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42723</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42724</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42724</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42724</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42724</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42724</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42724</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42724</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42724</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42724</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42725</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42725</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42725</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2">
+        <v>42726</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/learn/tiedaoworst.xlsx
+++ b/learn/tiedaoworst.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>沁言子</t>
   </si>
@@ -215,6 +215,84 @@
   <si>
     <t>马 夋</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>吸毒者（某星二代）狗带好吗。这什么主题的电影，居然让吸毒的人当隐形二番？不要跟我说电影好就行了放过某个演员吧，柯震东演警察的时候你们不是这么说的哦。而且电影也不见得有多好。再者，成龙隐瞒他儿子参演的事，是欺骗观众了吧？（跟道德绑架无关，你要看随你，各抒己见罢了，粉丝们别再私信我）</t>
+  </si>
+  <si>
+    <t>丝米</t>
+  </si>
+  <si>
+    <t>弱智脑残片，要这么抗日，还有现在的中国吗？王大陆一口台湾腔让我立马穿越到少女时代，王凯大银幕上演技拙计，wuli套套还是wuli套套的样子，最后告诉你们一个秘密吸du房戏份很多。</t>
+  </si>
+  <si>
+    <t>taoxinxu释凡</t>
+  </si>
+  <si>
+    <t>丁晟用拙劣烂片，证明再多投资与明星，也掩盖不了自己土鳖本质。粗制滥造、弱智乏味，以为成龙不用武术，就能带房祖名轻松圈钱，以为火车乱撞炸大桥，王凯骑马耍酷枪扫鬼子意淫，就能掩盖抗日雷片本质，徐帆煎饼麻醉日本脑残，黑七八黑影像，犹如大学生军训枪战与劫持大哥晚节不保，噩梦中噩梦，造孽</t>
+  </si>
+  <si>
+    <t>m89</t>
+  </si>
+  <si>
+    <t>快点GO DIE吧。果然最后我党神兵天降。2016年中国电影界第一惨案，比《绝地逃亡》还难看十倍，这个编剧又是谁家的关系户啊?标准的抗日神剧，无聊，反智，幼稚，恶心，考虑到丁晟上一部作品是《解救吾先生》，就更加无法让人接受。而且好久没听到这么智障的配乐了。</t>
+  </si>
+  <si>
+    <t>桃桃淘电影</t>
+  </si>
+  <si>
+    <t>丁晟不适合这种喜剧风格的片子，特别别扭。他还是适合比较硬的直男动作片。成龙还是老了，动作场面显然不行了。整个片子的意识比较老，情节老，桥段也老，人物设定也套路。可看性怪低的</t>
+  </si>
+  <si>
+    <t>獨孤島主</t>
+  </si>
+  <si>
+    <t>这才是真正的“亵渎电影”</t>
+  </si>
+  <si>
+    <t>妖灵妖</t>
+  </si>
+  <si>
+    <t>就知道干</t>
+  </si>
+  <si>
+    <t>相约天涯路踏遍</t>
+  </si>
+  <si>
+    <t>有房祖名为啥不说！</t>
+  </si>
+  <si>
+    <t>霹雳少女</t>
+  </si>
+  <si>
+    <t>一个疑问，成龙痴呆了吗？</t>
+  </si>
+  <si>
+    <t>izaijin</t>
+  </si>
+  <si>
+    <t>也只有偶尔的调侃能给我看下去的动力，用这么弱智的敌人来粉饰我“乡巴佬”要干的的“大事”，也是够了。房祖名是主演，再强调一遍。</t>
+  </si>
+  <si>
+    <t>洛梅笙</t>
+  </si>
+  <si>
+    <t>这片就适合两种人看，一种是习惯于看撕鬼子大脑缺氧的观众，一种是成全成龙父爱的慈善家。</t>
+  </si>
+  <si>
+    <t>猫耶耶儿</t>
+  </si>
+  <si>
+    <t>厉害了word公子and大哥（排名不分先后）。</t>
+  </si>
+  <si>
+    <t>Craaane</t>
+  </si>
+  <si>
+    <t>丑拒</t>
   </si>
 </sst>
 </file>
@@ -550,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
@@ -992,6 +1070,149 @@
         <v>60</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/learn/tiedaoworst.xlsx
+++ b/learn/tiedaoworst.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="269">
   <si>
     <t>沁言子</t>
   </si>
@@ -293,6 +293,548 @@
   </si>
   <si>
     <t>丑拒</t>
+  </si>
+  <si>
+    <t>Mathilda</t>
+  </si>
+  <si>
+    <t>国内一线导演拥有这样狭隘而丑陋的世界观 简直让我受到了惊吓</t>
+  </si>
+  <si>
+    <t>纳喇小策子</t>
+  </si>
+  <si>
+    <t>房祖名戏份不少 片方刻意隐瞒宣传 婊脸</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>哈哈哈哈哈哈哈哈哈房祖名什么鬼？柯震东加油！</t>
+  </si>
+  <si>
+    <t>Fonic</t>
+  </si>
+  <si>
+    <t>不值得搞3D的2D作品 还每个片段都搞小标题 简直看课本 做出的生活气息很不喜欢… 有一种主演在我面前喝粥的感觉 演技最好的是日本人 大陆为毛没死居然没填坑 本来不准备看的 但是免费的票就看看了 确实有房祖名很恶心 对得起缉毒警吗 with倩倩浩然in慈云寺店</t>
+  </si>
+  <si>
+    <t>莲花一朵朵</t>
+  </si>
+  <si>
+    <t>首页那些安利这部剧好看的垃圾们，你们这是在纵容犯罪，有关部门睁一只眼闭一只眼这样纵容，你们也这样纵容洗地还安利，良心在哪里？？这么快就忘了前不久的湄公河了么。以后有缉毒警察牺牲，背后都有你这次的纵容、洗地、作孽。还有相关部门，你们对得起国家那些缉毒警察么？？真是败类满地。</t>
+  </si>
+  <si>
+    <t>Biron</t>
+  </si>
+  <si>
+    <t>演技滑铁卢，经不起大荧幕的考验。</t>
+  </si>
+  <si>
+    <t>wx</t>
+  </si>
+  <si>
+    <t>捞钱父子兵，既然那么喜欢让你儿子上，我就免费送你一星吧，白羊座里大男子主义派的父亲果然一个顶一个恶心。ps：为表公正，我还特意去视频网站用会员看你这部营销号恨不得吹上天的垃圾，果然，我没在上映期间去看是正确的，垃圾就是垃圾。</t>
+  </si>
+  <si>
+    <t>朱古力</t>
+  </si>
+  <si>
+    <t>烂，没诚意</t>
+  </si>
+  <si>
+    <t>花生蛋蛋酱</t>
+  </si>
+  <si>
+    <t>不宣传房祖名完全属于欺骗吧……</t>
+  </si>
+  <si>
+    <t>月光之魂</t>
+  </si>
+  <si>
+    <t>老子捧儿子的戏</t>
+  </si>
+  <si>
+    <t>莱拉斯特</t>
+  </si>
+  <si>
+    <t>给三星的原因完全是因为摆渡人太特么烂了！</t>
+  </si>
+  <si>
+    <t>lifeFR</t>
+  </si>
+  <si>
+    <t>手撕鬼子，适合cctv播放。</t>
+  </si>
+  <si>
+    <t>人无外财不富</t>
+  </si>
+  <si>
+    <t>敢不敢事先就告诉观众房祖名是主演之一？</t>
+  </si>
+  <si>
+    <t>爱吃鱼的羊</t>
+  </si>
+  <si>
+    <t>竟然有房祖名，果断一星</t>
+  </si>
+  <si>
+    <t>小小菩提树</t>
+  </si>
+  <si>
+    <t>一群垃圾演的抗日神片。日军都是弱智，没有一点战斗力。 吸毒二代当主演，虽是动作喜剧根本笑不出来。 一分钱都不值。今年国产片大部分很烂，白占着放映份额。 父子捞钱，少说话。</t>
+  </si>
+  <si>
+    <t>深渊</t>
+  </si>
+  <si>
+    <t>热评第一扯到吸毒缉毒的也真是傻逼圣母婊子垃圾</t>
+  </si>
+  <si>
+    <t>Miho</t>
+  </si>
+  <si>
+    <t>不谈房祖名的话，电影本身还是比之前那部&lt;绝地逃亡&gt;好不少了</t>
+  </si>
+  <si>
+    <t>哈尼哈尼</t>
+  </si>
+  <si>
+    <t>丁晟这个锅你来背吧！制作稍微精良一点儿的抗日神剧。部分动作场景电视剧质感强烈，节奏混乱，配乐也混乱，部分配乐抄袭功夫熊猫。</t>
+  </si>
+  <si>
+    <t>29号特区</t>
+  </si>
+  <si>
+    <t>低分的电影各有各的不幸，如长城。暑假的绝地逃亡我都可以打4星，这部作为贺岁其实不错，奈何。我只是坚定一下立场。别人不跟你讲良心，你还讲？到底谁昧着良心。</t>
+  </si>
+  <si>
+    <t>﹁_﹂</t>
+  </si>
+  <si>
+    <t>二点五⭐ 电影其实还不错 但是隐瞒房祖名真是太扣分了</t>
+  </si>
+  <si>
+    <t>西瓜</t>
+  </si>
+  <si>
+    <t>这就是父爱吗？</t>
+  </si>
+  <si>
+    <t>最美的你</t>
+  </si>
+  <si>
+    <t>为什么有房祖名。。。。</t>
+  </si>
+  <si>
+    <t>翎</t>
+  </si>
+  <si>
+    <t>节奏拖沓、情节毫无说服力、成龙不是老了，是完蛋了。</t>
+  </si>
+  <si>
+    <t>fannydelia</t>
+  </si>
+  <si>
+    <t>成龙喜剧很欢乐，但里面配角没一个有演技的，全不喜欢，特别龙太子简直就是有个好爹系列，本来可以3分，现在减成2分</t>
+  </si>
+  <si>
+    <t>至尊宝</t>
+  </si>
+  <si>
+    <t>烂片</t>
+  </si>
+  <si>
+    <t>弗莱因曼</t>
+  </si>
+  <si>
+    <t>我想知道这片子和《举起手来》有啥区别？</t>
+  </si>
+  <si>
+    <t>步步</t>
+  </si>
+  <si>
+    <t>丁导演图啥啊……资方宣传手法差评，隐瞒吸毒艺人，这条不能忍。太恶心了。</t>
+  </si>
+  <si>
+    <t>淡淡风月</t>
+  </si>
+  <si>
+    <t>对成龙很失望。</t>
+  </si>
+  <si>
+    <t>一颗蓝柚子</t>
+  </si>
+  <si>
+    <t>hzt，wk，还有龙太子，能凑齐所有我不喜欢的人，也是一种能力！看完隔壁湄公河，果断打一星</t>
+  </si>
+  <si>
+    <t>葡萄猪不爱睡觉</t>
+  </si>
+  <si>
+    <t>房祖名不是吸毒藏毒吗？怎么还有片子上映</t>
+  </si>
+  <si>
+    <t>也是个故事</t>
+  </si>
+  <si>
+    <t>三番剧情的房祖名居然在里面 呵呵哒 果然有个NB的老爸就是不一样 恶习</t>
+  </si>
+  <si>
+    <t>可可</t>
+  </si>
+  <si>
+    <t>除了房祖名和王大陆 其他都好 成式幽默 很搞笑 比较正规 哈哈哈</t>
+  </si>
+  <si>
+    <t>vici</t>
+  </si>
+  <si>
+    <t>房祖名？不好意思一星差评，手动再见。</t>
+  </si>
+  <si>
+    <t>马田</t>
+  </si>
+  <si>
+    <t>烂</t>
+  </si>
+  <si>
+    <t>勿谓言之不预吖</t>
+  </si>
+  <si>
+    <t>父爱如山😐</t>
+  </si>
+  <si>
+    <t>扯SAMA</t>
+  </si>
+  <si>
+    <t>片子还行，剪辑太晃了，还有为啥有房祖名？？？</t>
+  </si>
+  <si>
+    <t>Leven</t>
+  </si>
+  <si>
+    <t>我要是知道有龙太子，肯定不去看。动作喜剧，例如炫了一下爬墙，结束后走几步发现有梯子</t>
+  </si>
+  <si>
+    <t>慕容竹依</t>
+  </si>
+  <si>
+    <t>烂到家了。能看这样的片子，我自己也要反思一下。</t>
+  </si>
+  <si>
+    <t>涟漪</t>
+  </si>
+  <si>
+    <t>为房祖名。片方也是很懂，这真的不是欺骗消费者？</t>
+  </si>
+  <si>
+    <t>习非胜是</t>
+  </si>
+  <si>
+    <t>艹</t>
+  </si>
+  <si>
+    <t>镜子里的不对称</t>
+  </si>
+  <si>
+    <t>房祖名为毛还可以出来拍电影，不应该减掉戏份吗</t>
+  </si>
+  <si>
+    <t>冬日的雪花</t>
+  </si>
+  <si>
+    <t>吸毒人员。。。。。。</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>吸毒鬼演的，不提供他的毒品钱</t>
+  </si>
+  <si>
+    <t>放飞</t>
+  </si>
+  <si>
+    <t>房祖名…… 再见👋……</t>
+  </si>
+  <si>
+    <t>堇LEE</t>
+  </si>
+  <si>
+    <t>毒 没有儿子的话 可以有两星半 有笑点 就是节奏有点慢 剧情有点长了。</t>
+  </si>
+  <si>
+    <t>lovepoplove</t>
+  </si>
+  <si>
+    <t>小成本的烂片</t>
+  </si>
+  <si>
+    <t>芒果真好吃</t>
+  </si>
+  <si>
+    <t>满满的父爱呢这是</t>
+  </si>
+  <si>
+    <t>紫啸</t>
+  </si>
+  <si>
+    <t>听说有房祖名，友情来贡献一星，为缉毒警察致敬</t>
+  </si>
+  <si>
+    <t>文房一宝</t>
+  </si>
+  <si>
+    <t>尴尬症犯了</t>
+  </si>
+  <si>
+    <t>MrColin鹏鹏</t>
+  </si>
+  <si>
+    <t>这特么拍的什么玩意儿？？？？</t>
+  </si>
+  <si>
+    <t>锦绣年华</t>
+  </si>
+  <si>
+    <t>隐瞒得太好了</t>
+  </si>
+  <si>
+    <t>reed瑜ever</t>
+  </si>
+  <si>
+    <t>买了票，听说有房祖名？？恶心</t>
+  </si>
+  <si>
+    <t>收合颜而静志</t>
+  </si>
+  <si>
+    <t>为啥房祖名还能演电影</t>
+  </si>
+  <si>
+    <t>超大西瓜</t>
+  </si>
+  <si>
+    <t>成龙的片都是套路，还有，涛涛太丑了</t>
+  </si>
+  <si>
+    <t>啊呸</t>
+  </si>
+  <si>
+    <t>房祖名是怎么回事哟</t>
+  </si>
+  <si>
+    <t>小杰V7</t>
+  </si>
+  <si>
+    <t>组名二番</t>
+  </si>
+  <si>
+    <t>一川烟草 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呵呵</t>
+  </si>
+  <si>
+    <t>tx大魔王</t>
+  </si>
+  <si>
+    <t>为房祖名友情一星</t>
+  </si>
+  <si>
+    <t>锦兮</t>
+  </si>
+  <si>
+    <t>看到龙太子以后无言以对</t>
+  </si>
+  <si>
+    <t>渡边麻友</t>
+  </si>
+  <si>
+    <t>烂片 吸毒房戏份还这么重</t>
+  </si>
+  <si>
+    <t>我佳</t>
+  </si>
+  <si>
+    <t>房祖名2演技生硬</t>
+  </si>
+  <si>
+    <t>黄衣之王</t>
+  </si>
+  <si>
+    <t>智障</t>
+  </si>
+  <si>
+    <t>没有如果</t>
+  </si>
+  <si>
+    <t>才知道有吸毒的房祖名，没看，只为了拉低分数。话说，强烈要求豆瓣出零分和负分！吸毒艺人狗带！</t>
+  </si>
+  <si>
+    <t>失去的回不来</t>
+  </si>
+  <si>
+    <t>本以为成龙大哥会给我带来惊喜，可是给我带来的是满满的槽点。为啥会有你儿子？如果最开始知道。我是绝对不会去看的。对你真心失望。💔💔</t>
+  </si>
+  <si>
+    <t>、曾经沧海</t>
+  </si>
+  <si>
+    <t>简直是在侮辱智商。</t>
+  </si>
+  <si>
+    <t>oneness</t>
+  </si>
+  <si>
+    <t>房祖名在啊？那我不客气打差评了。</t>
+  </si>
+  <si>
+    <t>Eveeeen</t>
+  </si>
+  <si>
+    <t>有房祖名，戏份还挺多。成龙确实年纪上来了，很多地方有点力不从心。黄子韬练过功夫非常不一样，身手很好很干净。王凯的角色神枪手人设很棒，特别帅，真的是很好的演员朋友，喜剧正剧都可以hold住（天呐这个说法好土。座り那段讲日语苏的没有我，王大陆真 特别出演，张蓝心很漂亮，池内博之很帅。</t>
+  </si>
+  <si>
+    <t>奥曲肽</t>
+  </si>
+  <si>
+    <t>对不起，但是我真的忍受不了吸毒艺人再次出现！</t>
+  </si>
+  <si>
+    <t>毛血旺</t>
+  </si>
+  <si>
+    <t>听不懂不能用吸毒艺人吗？一星给成龙。</t>
+  </si>
+  <si>
+    <t>四野</t>
+  </si>
+  <si>
+    <t>看完让我感觉有一种在看柯南剧场版的感觉~ 弱智程度不禁想起了《举起手来》！</t>
+  </si>
+  <si>
+    <t>子cri不是吱吱</t>
+  </si>
+  <si>
+    <t>垃圾东西，请了多少水军</t>
+  </si>
+  <si>
+    <t>凳子叔</t>
+  </si>
+  <si>
+    <t>大哥为了挺儿子机关算尽，广电这么没原则何谈公信，国内电影市场的乱象真的让对国产电影抱有希望的观众心寒到了骨子里。</t>
+  </si>
+  <si>
+    <t>六尺之上</t>
+  </si>
+  <si>
+    <t>拍个主旋律，就可以把吸毒的儿子扶正了，哈哈哈哈哈哈哈哈</t>
+  </si>
+  <si>
+    <t>溏心喵星雯</t>
+  </si>
+  <si>
+    <t>竟然有吸毒龙太子负分！但是我是凯凯真爱粉啊，加五分，滤镜太厚，故事还可以，有点抗日神剧。黄子韬的青岛普通话一张嘴就想笑，差点对他黑转粉了。</t>
+  </si>
+  <si>
+    <t>划水珏珏</t>
+  </si>
+  <si>
+    <t>有房祖名，微笑拒绝</t>
+  </si>
+  <si>
+    <t>延边人民</t>
+  </si>
+  <si>
+    <t>坑爹房祖名</t>
+  </si>
+  <si>
+    <t>゛ Poetry゜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港台腔的八路军，duangduangduang。丁晟一定是被绑架了，浪费时间。</t>
+  </si>
+  <si>
+    <t>一个杀手</t>
+  </si>
+  <si>
+    <t>又名：《铁道祖名》</t>
+  </si>
+  <si>
+    <t>叶小天</t>
+  </si>
+  <si>
+    <t>吸毒演员还能演电影，不是不能上了吗</t>
+  </si>
+  <si>
+    <t>永远的你</t>
+  </si>
+  <si>
+    <t>为啥有黄子韬这个傻逼，一天长的这么丑还爱装逼</t>
+  </si>
+  <si>
+    <t>jiang940815</t>
+  </si>
+  <si>
+    <t>成龙大哥为了儿子也是够拼！</t>
+  </si>
+  <si>
+    <t>☲</t>
+  </si>
+  <si>
+    <t>真不敢相信在家抵制了许久的脑残抗日片我居然坐在电影院里看剧场版，自扇嘴巴</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>首先 电影本身没有任何惊喜的地方 其次 成龙大哥您带着儿子演个抗战片就以为能洗白吗 我呵呵</t>
+  </si>
+  <si>
+    <t>九月19910909</t>
+  </si>
+  <si>
+    <t>成龙真是够没节操的，一套傻瓜套路打算用到死。</t>
+  </si>
+  <si>
+    <t>。。。</t>
+  </si>
+  <si>
+    <t>坚决抵制吸毒艺人</t>
+  </si>
+  <si>
+    <t>暴躁的文青</t>
+  </si>
+  <si>
+    <t>2016年的国产电影太让我失望了，为何中国电影在经过15年的火爆后会沉寂成这个样子？到了该转变思路的时候了吧，真的不要再消耗国人对国产电影的热情了。另：成龙费了那么大的心思捧毒太子有意思吗？欺骗观众减一星。 有病了还不许我打低分，那只好修改成一分了不谢！</t>
+  </si>
+  <si>
+    <t>唐深</t>
+  </si>
+  <si>
+    <t>情怀打分，一星王凯一星丁晟。某人隐形三番太恶心人了。</t>
+  </si>
+  <si>
+    <t>妙妙</t>
+  </si>
+  <si>
+    <t>无聊</t>
+  </si>
+  <si>
+    <t>蓝天下的橙子</t>
+  </si>
+  <si>
+    <t>有FZM，差评</t>
+  </si>
+  <si>
+    <t>Lynnhengheng</t>
+  </si>
+  <si>
+    <t>拒绝吸毒人士，请去做幕后或者转行</t>
   </si>
 </sst>
 </file>
@@ -628,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:XFD142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
@@ -1213,6 +1755,996 @@
         <v>88</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B107" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B113" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B114" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B117" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B120" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B123" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B129" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B130" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B132" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B133" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B134" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B136" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B138" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B139" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B142" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/learn/tiedaoworst.xlsx
+++ b/learn/tiedaoworst.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="531">
   <si>
     <t>沁言子</t>
   </si>
@@ -835,13 +835,802 @@
   </si>
   <si>
     <t>拒绝吸毒人士，请去做幕后或者转行</t>
+  </si>
+  <si>
+    <t>tppeyf</t>
+  </si>
+  <si>
+    <t>绝不给瘾君子贡献票房，成龙恶意欺诈，如果一开始就宣传有他儿子，我想绝对很多有良知的人都不会选择买票，垃圾 —————————————————————— 网上有了资源，忍着此剧带给我的生理性不适，差点就没看下去，为了kkw我也是蛮拼的，即使不黑龙太子，单论电影的品质，也差，最多2星</t>
+  </si>
+  <si>
+    <t>林殊女朋友</t>
+  </si>
+  <si>
+    <t>打一分虽然很对不起工作人员 但是还是想因为想抵制吸毒明星</t>
+  </si>
+  <si>
+    <t>铁十字</t>
+  </si>
+  <si>
+    <t>与摆渡人同时上映，我也当天同时看了两部。铁道飞虎就是个儿戏，适合10岁以下小朋友。</t>
+  </si>
+  <si>
+    <t>小夫卡</t>
+  </si>
+  <si>
+    <t>呵呵哒。</t>
+  </si>
+  <si>
+    <t>吾乃某娜</t>
+  </si>
+  <si>
+    <t>知道有房祖名后，我就把票退了，但是我还是要打个1星</t>
+  </si>
+  <si>
+    <t>xybbahsn</t>
+  </si>
+  <si>
+    <t>难看</t>
+  </si>
+  <si>
+    <t>应尔</t>
+  </si>
+  <si>
+    <t>一部不知道在讲什么的烂片了</t>
+  </si>
+  <si>
+    <t>kyoui</t>
+  </si>
+  <si>
+    <t>适合一家人一起看都毫无违和感的电影，缺点也是最大败笔就是房祖名。看海报完全没注意到有他，结果一看电影戏份还蛮重的，必须抵制污点艺人。</t>
+  </si>
+  <si>
+    <t>乖狗狗爱懒羊ya</t>
+  </si>
+  <si>
+    <t>成龙儿子为什么能出镜？</t>
+  </si>
+  <si>
+    <t>mine8860</t>
+  </si>
+  <si>
+    <t>真是可怕，欺骗观众，我想知道它是如何过审的？</t>
+  </si>
+  <si>
+    <t>獅子奮迅</t>
+  </si>
+  <si>
+    <t>父子齐上阵有点吃惊，为了毒儿子做到这份上了。很多梗太刻意，笑不出来，整体还行吧。</t>
+  </si>
+  <si>
+    <t>群星碎屑</t>
+  </si>
+  <si>
+    <t>大哥老矣</t>
+  </si>
+  <si>
+    <t>吴趴趴</t>
+  </si>
+  <si>
+    <t>圣诞档 烂片＋1</t>
+  </si>
+  <si>
+    <t>Bernie</t>
+  </si>
+  <si>
+    <t>啧啧啧啧 房祖名可以可以！</t>
+  </si>
+  <si>
+    <t>乱七八糟宅猫</t>
+  </si>
+  <si>
+    <t>有房祖名这事儿简直是欺诈事件</t>
+  </si>
+  <si>
+    <t>rachelZZZ</t>
+  </si>
+  <si>
+    <t>浪费时间</t>
+  </si>
+  <si>
+    <t>时间の味道</t>
+  </si>
+  <si>
+    <t>手撕鬼子，有什么区别</t>
+  </si>
+  <si>
+    <t>玖萬</t>
+  </si>
+  <si>
+    <t>房祖名是男二号！房祖名是男二号！房祖名是男二号！重要的事情说三遍！</t>
+  </si>
+  <si>
+    <t>曹阿蛋</t>
+  </si>
+  <si>
+    <t>爹帮儿子擦屁股 么。挺恶心的。但除了这点，王凯出来帅炸了哈哈哈！彩蛋也算有趣。</t>
+  </si>
+  <si>
+    <t>人在旅途</t>
+  </si>
+  <si>
+    <t>别看韬韬在演员表上是二番，正儿八经的二番是某个吸毒演员哦。这种水平的电影还要搞3D，能不能先提高下演员的演技？</t>
+  </si>
+  <si>
+    <t>夜猫子</t>
+  </si>
+  <si>
+    <t>房祖名是男二（翻白眼） 弱智不是幽默搞笑（再翻白眼）不是送的票是不会来看的（嗯！</t>
+  </si>
+  <si>
+    <t>sealovemoon</t>
+  </si>
+  <si>
+    <t>就问你们看得尴尬不？？？？？又说吸毒明星永久封杀……尴尬不，尴尬！</t>
+  </si>
+  <si>
+    <t>黑猫啊紧张</t>
+  </si>
+  <si>
+    <t>丁晟越来越垃圾了</t>
+  </si>
+  <si>
+    <t>小太阳</t>
+  </si>
+  <si>
+    <t>呵呵呵哒……实在是笑不出来，我是不是生病了，旁边的人笑那么开心</t>
+  </si>
+  <si>
+    <t>Mixx💢</t>
+  </si>
+  <si>
+    <t>真的，很无聊，又臭又长，跟抗日电视剧没什么区别，小成本的烂片，看了一半就走了</t>
+  </si>
+  <si>
+    <t>celia1011</t>
+  </si>
+  <si>
+    <t>只想说成龙的电影越来越难看，无新意。而且房祖名不提是打算欺骗大家吗？</t>
+  </si>
+  <si>
+    <t>被淹死地鱼</t>
+  </si>
+  <si>
+    <t>抵制吸毒艺人房祖名复出！</t>
+  </si>
+  <si>
+    <t>凯凯的小阿一</t>
+  </si>
+  <si>
+    <t>三星给我爱的凯凯，一星给笑点与成龙，减去一星因为房！祖！名！</t>
+  </si>
+  <si>
+    <t>QAQ</t>
+  </si>
+  <si>
+    <t>吸毒的人也能演电影了吗</t>
+  </si>
+  <si>
+    <t>大天狗</t>
+  </si>
+  <si>
+    <t>听说了里面有吸毒人员，原本冲tao想给四星的，现在两星都是tao的，其他的。。。吸毒明星如此猖狂，刚好看了一个报导关于缉毒警察的，中国娱乐圈包容度太大，可怜了那些缉毒警察</t>
+  </si>
+  <si>
+    <t>tommy lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草泥马，周星驰、成龙欠你们的票都还光了哈！中国电影都堕落到什么地步了！没有负分吗？草！</t>
+  </si>
+  <si>
+    <t>食曼_头</t>
+  </si>
+  <si>
+    <t>成龙为儿子操碎了心</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>把龙太子放进来，戏份还这么重，事先一字没提，放了有什么不敢说的？也知道会有人抵制是吧，我就呵呵了。</t>
+  </si>
+  <si>
+    <t>王燚</t>
+  </si>
+  <si>
+    <t>其实，大哥的片子，是不能再看了……原来这片为的是龙太子☹️</t>
+  </si>
+  <si>
+    <t>喵丶</t>
+  </si>
+  <si>
+    <t>成龙真的是晚年不保，自己孩子吸毒还敢这样当隐藏男主，真的是挑战大家对您的忍耐极限吗？？？</t>
+  </si>
+  <si>
+    <t>黑木蕨</t>
+  </si>
+  <si>
+    <t>呵呵，为了吸毒祖名复出来回溜小鲜肉粉丝，送审怎么过的？？？</t>
+  </si>
+  <si>
+    <t>你们的士</t>
+  </si>
+  <si>
+    <t>辣鸡</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>丁晟的水平也就是个6分了</t>
+  </si>
+  <si>
+    <t>呀呀呀呀呀也</t>
+  </si>
+  <si>
+    <t>失望 烂片</t>
+  </si>
+  <si>
+    <t>大白鹅</t>
+  </si>
+  <si>
+    <t>我是没有看，但也已经知道有房祖名还镜头超级多。你这种主演里面一个字不提，是什么意思，你儿子房祖名可是藏毒，讲的不好听，比柯震东都厉害。要不要脸。对得起这么多缉毒的警察吗！</t>
+  </si>
+  <si>
+    <t>唯一</t>
+  </si>
+  <si>
+    <t>好垃圾的演技 看一半就不看了 浪费我时间</t>
+  </si>
+  <si>
+    <t>PDCA</t>
+  </si>
+  <si>
+    <t>呵呵，</t>
+  </si>
+  <si>
+    <t>胖太</t>
+  </si>
+  <si>
+    <t>抵制吸毒艺人，一星滚粗</t>
+  </si>
+  <si>
+    <t>Mirkwood</t>
+  </si>
+  <si>
+    <t>去看长城，结果被朋友拖去非要看成龙的，一点都不好笑，好尴尬，成龙老了，其他人演的又差，都好做作，什么破电影，还我38块钱亏死了</t>
+  </si>
+  <si>
+    <t>Lovegin</t>
+  </si>
+  <si>
+    <t>非常鄙视弱化鬼子兵的抗战神剧，非常鄙视，不尊重敌人就是不尊重抗战牺牲无所血和肉。况且房祖名，还敢，还可以上大屏幕??!</t>
+  </si>
+  <si>
+    <t>Katherine雯</t>
+  </si>
+  <si>
+    <t>这片子用了房祖名。。。</t>
+  </si>
+  <si>
+    <t>Evergreen</t>
+  </si>
+  <si>
+    <t>涉毒艺人永不原谅</t>
+  </si>
+  <si>
+    <t>SugarMan_mlgb</t>
+  </si>
+  <si>
+    <t>抗日喜剧化，反派弱智化 +1</t>
+  </si>
+  <si>
+    <t>木玥枯</t>
+  </si>
+  <si>
+    <t>欺骗？</t>
+  </si>
+  <si>
+    <t>死也不告诉你</t>
+  </si>
+  <si>
+    <t>看到房祖名出现愣了一下，居然能出演了。片子节奏挺香港商业片的，看的很顺，成龙还自黑duang了下，但这片子就是爆米花片，不能深究，不然各种吐槽点。配音也是个问题，台湾腔的八路？港普的山东人？倒是看到池内博之惊讶了下，演的真好，可惜设定过于智障了，尤其吃了大饼后。最后其实无脑看挺爽</t>
+  </si>
+  <si>
+    <t>小旋风</t>
+  </si>
+  <si>
+    <t>剧情低幼，笑料俗套，日军智障，特效山炮，贺岁档再添一烂，最后我想问龙叔何时退休..难道非要搞得晚节不保，汗，话说明年初的《功夫瑜伽》说啥也不去影院看了。。怕被蠢哭</t>
+  </si>
+  <si>
+    <t>IQD演员</t>
+  </si>
+  <si>
+    <t>滚 房事龙</t>
+  </si>
+  <si>
+    <t>张敦</t>
+  </si>
+  <si>
+    <t>这部政治绝对正确的电影是为房祖名复出而拍。成龙拿着个大烟袋锅，一口没抽，说自己戒了，这其实是暗示他本人也曾抽过，只不过没让你们看见。</t>
+  </si>
+  <si>
+    <t>Sayutianski</t>
+  </si>
+  <si>
+    <t>长城有5.5分的话，这个也有。提一下，当房祖名作为主演之一赫然出现在片中，我只想到一句话：“可怜天下父母心！”</t>
+  </si>
+  <si>
+    <t>茴香包子</t>
+  </si>
+  <si>
+    <t>这估计是成龙大哥最烂的片子？滔滔生涩，王凯做作，丑大陆打酱油，祖名实力男二。成龙大哥感动中国好爸爸，嘴上说着不要，身体却很诚实。</t>
+  </si>
+  <si>
+    <t>麦提爽</t>
+  </si>
+  <si>
+    <t>丁晟为成龙父子炮制的一出闹剧。</t>
+  </si>
+  <si>
+    <t>张咏轩Wayne</t>
+  </si>
+  <si>
+    <t>房祖名是男二号，而片方一直保密到底只字不提，算不算欺瞒大众？依然很成龙的喜剧动作，只是故事陈旧手法老套，还将网络段子和父子情怀融入，戏里戏外的情感线并联，有意外的戏剧效果。全片成龙的动作戏份骤减，个人光环被压制，群像表达才是正题，游击队的团体合作是看点，而刻意丑化日军的幽默太低下</t>
+  </si>
+  <si>
+    <t>xoxo00</t>
+  </si>
+  <si>
+    <t>心疼成龙大哥，良苦用心呐，当了熊孩子老爸的人真的酷不起来。</t>
+  </si>
+  <si>
+    <t>酸梅子红茶</t>
+  </si>
+  <si>
+    <t>既然有某组名的话那就占个差评先</t>
+  </si>
+  <si>
+    <t>月小坎</t>
+  </si>
+  <si>
+    <t>浪费了一上午</t>
+  </si>
+  <si>
+    <t>ladae_</t>
+  </si>
+  <si>
+    <t>竟然有房祖名！我去，宣传的时候完全没有好吧</t>
+  </si>
+  <si>
+    <t>柒色。</t>
+  </si>
+  <si>
+    <t>去看了才知道有儿子，科科。所以为啥我会在平安夜去看这个电影（黑人问号）</t>
+  </si>
+  <si>
+    <t>lubio</t>
+  </si>
+  <si>
+    <t>欺诈啊。之前不敢宣传小毒龙不就是因为怕大家抵制吗？你也知道自己儿子会被人抵制？偷偷摸摸想借尸还魂？老子色情狂，儿子小毒虫！抗日，主旋律，其他明星怎么加持都没有用。真恶心了。不知情进电影院的观众还得看冥界亚龙表演。</t>
+  </si>
+  <si>
+    <t>Dickov</t>
+  </si>
+  <si>
+    <t>房事龙啊房事龙。。咋把房大麻也带出来了。。带出来也就算了，你倒是奉献一部好电影啊。。这尼玛是什么玩意。。。</t>
+  </si>
+  <si>
+    <t>木秦</t>
+  </si>
+  <si>
+    <t>成龙老了啊 感觉就是用自己不太灵活的身板来搞笑 挺生硬 打斗画面也不清晰</t>
+  </si>
+  <si>
+    <t>青鸟飞鱼</t>
+  </si>
+  <si>
+    <t>买了票进了影院坐下，开场看了一阵才突然发现有房祖名，我勒个擦，恶心死我了！</t>
+  </si>
+  <si>
+    <t>C的三次方™</t>
+  </si>
+  <si>
+    <t>老子带吸毒儿子拍抗日电影 喔唷</t>
+  </si>
+  <si>
+    <t>大仙儿</t>
+  </si>
+  <si>
+    <t>房祖名你个龟孙 让你吸毒 让你吸毒 让你吸毒</t>
+  </si>
+  <si>
+    <t>小火花</t>
+  </si>
+  <si>
+    <t>接受不了房祖名 成龙大哥 良苦用心</t>
+  </si>
+  <si>
+    <t>兰若</t>
+  </si>
+  <si>
+    <t>各种宣传都不提房祖名，营销号也集体沉默，不能不视为对观众的有意欺骗。成龙也许想着避免事前口水战，希望观众看过以后再评论，但他有没有想到过有些观众的亲戚朋友有可能是刑警缉毒警？恶意侵犯公众知情权总是不好的，想必成龙这么做时已经做好接受这个后果的心理准备，所以一星不谢。</t>
+  </si>
+  <si>
+    <t>盗泉盛</t>
+  </si>
+  <si>
+    <t>淫民日报，是你逼我的。垃圾不让说?是不是看个电影都不能言论自由，我cnmgb</t>
+  </si>
+  <si>
+    <t>冯导</t>
+  </si>
+  <si>
+    <t>任何评分系统，都会有争议，都不可能让所有人觉得满意。 关键是，要给所有人一个自由评分的平台，而不是动用公权力让这个平台变成只有一个声音的传声筒。 今天，你支持它们让你的不同意见者说不出话，明天，它们也随时可以让你也说不出话</t>
+  </si>
+  <si>
+    <t>明月</t>
+  </si>
+  <si>
+    <t>不喜欢吸毒男</t>
+  </si>
+  <si>
+    <t>假装自己是路人</t>
+  </si>
+  <si>
+    <t>明明片子里有房祖名这个吸毒的却不写出来，不就是想骗大家去看吗！不好意思，没兴趣给你贡献票房！</t>
+  </si>
+  <si>
+    <t>雪小兜兜</t>
+  </si>
+  <si>
+    <t>这是欺骗！</t>
+  </si>
+  <si>
+    <t>苏摩</t>
+  </si>
+  <si>
+    <t>冲着龙太子吸毒，这就有点问题，再加上电影实在有点弱智。成龙的电影还是慎重，上次就被天降雄狮骗了。</t>
+  </si>
+  <si>
+    <t>공유</t>
+  </si>
+  <si>
+    <t>成龙带崽成功地恶心了我</t>
+  </si>
+  <si>
+    <t>云起时</t>
+  </si>
+  <si>
+    <t>垃圾房祖名</t>
+  </si>
+  <si>
+    <t>alvaro</t>
+  </si>
+  <si>
+    <t>欺骗大众知情权</t>
+  </si>
+  <si>
+    <t>越洋简讯</t>
+  </si>
+  <si>
+    <t>垃圾</t>
+  </si>
+  <si>
+    <t>魚丸１番</t>
+  </si>
+  <si>
+    <t>对，我没看过！但是有房祖名。</t>
+  </si>
+  <si>
+    <t>达萌酱</t>
+  </si>
+  <si>
+    <t>房祖名</t>
+  </si>
+  <si>
+    <t>一见逍遥误终身</t>
+  </si>
+  <si>
+    <t>真的没想到会有房祖名 恶心到我了 看了10分钟就走了</t>
+  </si>
+  <si>
+    <t>油炸小土豆</t>
+  </si>
+  <si>
+    <t>房祖名是劣迹艺人，吸毒的事怎么不封杀？片方一直隐瞒房祖名是主演的事实，如此欺骗公众，缺德至极，必须一颗星。</t>
+  </si>
+  <si>
+    <t>尖尖er</t>
+  </si>
+  <si>
+    <t>抵制吸冰房艺人复出</t>
+  </si>
+  <si>
+    <t>凡凡牛鹿</t>
+  </si>
+  <si>
+    <t>房祖名？</t>
+  </si>
+  <si>
+    <t>生年</t>
+  </si>
+  <si>
+    <t>为了儿子也够拼……</t>
+  </si>
+  <si>
+    <t>灵龙</t>
+  </si>
+  <si>
+    <t>我承认我没看，但我听说有房祖名，就决定打一分，滚粗了。</t>
+  </si>
+  <si>
+    <t>晴晴</t>
+  </si>
+  <si>
+    <t>抵制吸毒藏毒收留他人吸毒明星！！！</t>
+  </si>
+  <si>
+    <t>aky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸毒艺人零容忍，不好意思，戏份还是男三更不能忍</t>
+  </si>
+  <si>
+    <t>能力者</t>
+  </si>
+  <si>
+    <t>房祖名吸毒 广店总菊就是个笑话</t>
+  </si>
+  <si>
+    <t>小灰吖吖</t>
+  </si>
+  <si>
+    <t>居然有房某🙃</t>
+  </si>
+  <si>
+    <t>ΙЧ 區№.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐下来三分钟后发现了房祖名的存在，而且戏份还很重。成龙大哥爱子情深，而且能过广电那关，实属不易，房祖名好自为之吧。消遣时看看的搞笑长视频，不能当电影来评价</t>
+  </si>
+  <si>
+    <t>嘿嘿嘿</t>
+  </si>
+  <si>
+    <t>有龙太子？一星不谢。为丁晟导演加一星，见过，很诚恳的电影人</t>
+  </si>
+  <si>
+    <t>没注销</t>
+  </si>
+  <si>
+    <t>有吸毒的</t>
+  </si>
+  <si>
+    <t>小龙杰出不杰出</t>
+  </si>
+  <si>
+    <t>垃圾中的战斗力，情节拖拉，演员装疯卖傻。从小看成龙电影长大，为何老了要拍这些垃圾出来毁一世英名。</t>
+  </si>
+  <si>
+    <t>海德Head</t>
+  </si>
+  <si>
+    <t>不用看了，虚假宣传，忽悠群众，一星伺候</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>父爱如山。</t>
+  </si>
+  <si>
+    <t>dahaiwo107</t>
+  </si>
+  <si>
+    <t>垃圾弱智片</t>
+  </si>
+  <si>
+    <t>kaka_kim</t>
+  </si>
+  <si>
+    <t>没看，有房祖名，一星滚</t>
+  </si>
+  <si>
+    <t>xchen1216</t>
+  </si>
+  <si>
+    <t>缺角镜子</t>
+  </si>
+  <si>
+    <t>抵制毒品，人人有责。</t>
+  </si>
+  <si>
+    <t>爱看电影的胖纸</t>
+  </si>
+  <si>
+    <t>大哥老了，应该休息了。再出来打拼也是江郎才尽了，抖包袱还是那些老梗。再怎么“duang”也还是烂片啊！</t>
+  </si>
+  <si>
+    <t>辰堃堃</t>
+  </si>
+  <si>
+    <t>冲着房祖名来打一星，请吸毒那群贱人去看湄公河行动好吗😒</t>
+  </si>
+  <si>
+    <t>无烟以对</t>
+  </si>
+  <si>
+    <t>弱智脑残抗日神剧烂片</t>
+  </si>
+  <si>
+    <t>老2老2老2老2了</t>
+  </si>
+  <si>
+    <t>为什么有房祖名？？？成龙老脸哪搁啊。 一星给韬韬 电影我还没看完</t>
+  </si>
+  <si>
+    <t>曜子</t>
+  </si>
+  <si>
+    <t>我都替导演尴尬，日本人是有多博爱啊，死都不杀人，看过血战钢锯岭后，抗日神剧真尴尬，汉奸最爱国，武士道精神导演不懂什么意思么，为了取悦大妈孩童扭曲历史，广电有这么严么，能不能去看看姜文的鬼子来了。台湾腔贯穿始终，得成龙得永生，党最牛逼，加入中国共产党。一个垃圾片字幕最3D就是圈钱用</t>
+  </si>
+  <si>
+    <t>蘇格格</t>
+  </si>
+  <si>
+    <t>抗日神剧....</t>
+  </si>
+  <si>
+    <t>兔子等着瞧</t>
+  </si>
+  <si>
+    <t>应该叫铁道飞虎之爸爸拉我一把 电影本身一星所有演员都好出戏蹩脚的港普和台普 剧情bug 莫名其妙复活的王大陆还有正常必死无疑的仨人就片尾刘德华一句带过了wuli真爱凯帅的出戏真心不适合演喜剧but骑马出场真是帅惨了成老爷子肯定知道这么欺骗观众会被骂拼老脸也要拉儿子一把也怪不容易的</t>
+  </si>
+  <si>
+    <t>牟爷吉祥</t>
+  </si>
+  <si>
+    <t>我不愿为吸毒明星贡献票房 我不管 就一颗星 人民日报你来打我阿</t>
+  </si>
+  <si>
+    <t>要选总统</t>
+  </si>
+  <si>
+    <t>看的我尴尬症都犯了。。龙式手撕鬼子。</t>
+  </si>
+  <si>
+    <t>脆小鹅</t>
+  </si>
+  <si>
+    <t>看完最大的感受就是，妈的，这群智障是怎么侵略了中国长达14年之久，屠戮无数？不要跟我提什么主旋律，爱国不是靠自欺欺人！</t>
+  </si>
+  <si>
+    <t>杜学邹</t>
+  </si>
+  <si>
+    <t>跟举起手来似的。成龙安享晚年吧</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>垃圾呀</t>
+  </si>
+  <si>
+    <t>tigerr</t>
+  </si>
+  <si>
+    <t>光明。</t>
+  </si>
+  <si>
+    <t>为什么不敢写明演员有房祖名，当看到他的我就起身离开影院了，谁能给牺牲的缉毒警察一次重生的机会？</t>
+  </si>
+  <si>
+    <t>大卫朵夫</t>
+  </si>
+  <si>
+    <t>暗搓搓加塞吸毒人员的电影是绝对不能被容忍的。</t>
+  </si>
+  <si>
+    <t>南瓜表妹</t>
+  </si>
+  <si>
+    <t>居然有房祖名，真是垃圾，成龙为啥老是演这些</t>
+  </si>
+  <si>
+    <t>你丑你先说</t>
+  </si>
+  <si>
+    <t>一星给吸毒狗</t>
+  </si>
+  <si>
+    <t>小番茄</t>
+  </si>
+  <si>
+    <t>大哥父爱如山，能别让儿子再出现在幕前了吗！</t>
+  </si>
+  <si>
+    <t>walker</t>
+  </si>
+  <si>
+    <t>抱歉不能客观评价这部电影，欺骗消费者太恶心。爹牛就是不一样，哈哈。</t>
+  </si>
+  <si>
+    <t>时间没有等我</t>
+  </si>
+  <si>
+    <t>为什么有房祖名啊？</t>
+  </si>
+  <si>
+    <t>erhuo</t>
+  </si>
+  <si>
+    <t>看我一个眼神，瞥死你。。。一群骗子，是给房祖名洗白白么？</t>
+  </si>
+  <si>
+    <t>杂食歆大大</t>
+  </si>
+  <si>
+    <t>抵制吸毒电影人人有责</t>
+  </si>
+  <si>
+    <t>楊楊</t>
+  </si>
+  <si>
+    <t>国产抗日神剧大电影版！！！</t>
+  </si>
+  <si>
+    <t>RoccoW</t>
+  </si>
+  <si>
+    <t>求别拍抗日神影了。。。更不要拍成喜剧，不好笑。真的看的很难过。刚翻译了一个纪录片，讲南京大屠杀的。杀南京市民真的没有30万，因为当时市民逃的只剩下七八万了。但是，杀的人有将近30万的，剩余的是放下武器的军人，国民軍。抗日战争打的多么艰难。中国军人死亡人数是日军的14倍，何况平民！</t>
+  </si>
+  <si>
+    <t>种个太阳砸死你</t>
+  </si>
+  <si>
+    <t>抗日神剧</t>
+  </si>
+  <si>
+    <t>雅卖呆</t>
+  </si>
+  <si>
+    <t>太尴尬了，满脸的尴尬，这个叫电影？</t>
+  </si>
+  <si>
+    <t>不吃蛋黄</t>
+  </si>
+  <si>
+    <t>房祖名？？？</t>
+  </si>
+  <si>
+    <t>黑夜的眼睛</t>
+  </si>
+  <si>
+    <t>老爸不遗余力洗白儿子，目的明确，江郎才尽的雷剧。</t>
+  </si>
+  <si>
+    <t>治愈系</t>
+  </si>
+  <si>
+    <t>抵制吸毒犯</t>
+  </si>
+  <si>
+    <t>小西</t>
+  </si>
+  <si>
+    <t>鬼子智商負數。永远都在打鬼子上过干瘾，哈哈哈哈。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +1641,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -880,7 +1677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +1685,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:XFD142"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A274" sqref="A274:XFD274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
@@ -2745,6 +3545,1458 @@
         <v>268</v>
       </c>
     </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B144" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B145" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B146" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B148" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B149" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B150" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B151" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B152" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B153" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B154" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B156" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B157" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B158" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B159" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B160" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B161" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B162" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B163" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B164" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B165" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B166" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B167" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B168" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B169" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B170" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B171" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B172" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B173" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B174" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B175" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B176" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B178" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B179" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B180" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B181" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B182" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B183" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B184" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B185" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B186" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B187" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B188" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B189" s="2">
+        <v>42727</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B190" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B191" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B192" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B193" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B194" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B195" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B196" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B197" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B198" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B199" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B200" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B201" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B202" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B203" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B204" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B205" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B206" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B207" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B208" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B209" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B210" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B211" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B212" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B213" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B214" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B215" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B216" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B217" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B218" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B219" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B220" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B221" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B222" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B223" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B224" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B225" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B226" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B228" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B229" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B230" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B231" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B232" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B233" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B234" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B235" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B236" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B237" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B238" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B239" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B240" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B241" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B242" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B243" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B244" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B245" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B246" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B247" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B248" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A249" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B249" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A250" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B250" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A251" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B251" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A252" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B252" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A253" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B253" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A254" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B254" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A255" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B255" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A256" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B256" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A257" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B257" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A258" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B258" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A259" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B259" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A260" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B260" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A261" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B261" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A262" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B262" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A263" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B263" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A264" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B264" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A265" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B265" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A266" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B266" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A267" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B267" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A268" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B268" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A269" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B269" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A270" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B270" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A271" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B271" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A272" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B272" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A273" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B273" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A274" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B274" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/learn/tiedaoworst.xlsx
+++ b/learn/tiedaoworst.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="576">
   <si>
     <t>沁言子</t>
   </si>
@@ -1624,6 +1624,141 @@
   </si>
   <si>
     <t>鬼子智商負數。永远都在打鬼子上过干瘾，哈哈哈哈。</t>
+  </si>
+  <si>
+    <t>lynnovoland</t>
+  </si>
+  <si>
+    <t>减一星给房太子，夹带私货可恶，吸毒就别出来了</t>
+  </si>
+  <si>
+    <t>大炎</t>
+  </si>
+  <si>
+    <t>房祖名是劣迹艺人，片方一直隐瞒房祖名是主演的事实，如此欺骗公众，缺德至极，必须一颗星…另，电影局为何会批准电影上映呢，总局某局长不是说，“总局态度是明确的，就是绝不能让有违法犯罪行为和丑闻劣迹者在广播影视中发声出镜，绝不容忍各种歪风邪气在业内盛行”吗？…</t>
+  </si>
+  <si>
+    <t>EVA_征服天堂</t>
+  </si>
+  <si>
+    <t>影史上最牛最长的彩蛋——房祖名！</t>
+  </si>
+  <si>
+    <t>瞳央央</t>
+  </si>
+  <si>
+    <t>抵制房祖名</t>
+  </si>
+  <si>
+    <t>bear.07煩躁地</t>
+  </si>
+  <si>
+    <t>三字王就是我</t>
+  </si>
+  <si>
+    <t>欺瞒观众还想要什么好评</t>
+  </si>
+  <si>
+    <t>白鲤末栀</t>
+  </si>
+  <si>
+    <t>拒绝房祖名</t>
+  </si>
+  <si>
+    <t>ES捧着肉脸</t>
+  </si>
+  <si>
+    <t>厉害了房祖名戏份好多哦 本来两颗星 房祖名多减一颗吧</t>
+  </si>
+  <si>
+    <t>来壹团</t>
+  </si>
+  <si>
+    <t>宣传涉及恶意故意欺骗，真的改过自新了，心里坦坦荡荡想要重新来过的话何必隐瞒主演</t>
+  </si>
+  <si>
+    <t>洛冰</t>
+  </si>
+  <si>
+    <t>应该是成龙演过最差的电影吧，没有之一。出演这个电影的理由是什么？带儿子上位？过把八路瘾？他儿子自从吸毒被关后还没有演戏，大概都不敢要吧！曾经有个香港演员就直言不讳的要求演一次抗日将军，后来还真有个电影，他去演了将军的角色。演什么角色有些演员的确没办法选择，但消费抗日就不太好。</t>
+  </si>
+  <si>
+    <t>nuone</t>
+  </si>
+  <si>
+    <t>非常非常非常非常垃圾的神剧，吸毒犯主演，剧情垃圾，语言表达生搬硬套流行语，跟正在上映的钢锯岭差距天地，不知道成龙怎么好意思去演难道纯粹就是为了自己吸毒儿子复出？</t>
+  </si>
+  <si>
+    <t>默默</t>
+  </si>
+  <si>
+    <t>可怜天下父母心，成龙为房祖名洗白的电影。</t>
+  </si>
+  <si>
+    <t>momoqm</t>
+  </si>
+  <si>
+    <t>带其儿子重新出来混的致谢片！</t>
+  </si>
+  <si>
+    <t>抠搜小怪物</t>
+  </si>
+  <si>
+    <t>房山午夜场</t>
+  </si>
+  <si>
+    <t>hahahahahahey</t>
+  </si>
+  <si>
+    <t>打着成龙的名字，为儿子的默默复出铺路。唉。</t>
+  </si>
+  <si>
+    <t>阿心在哪里</t>
+  </si>
+  <si>
+    <t>房祖名为何还没被禁？</t>
+  </si>
+  <si>
+    <t>超级英雄发骚友</t>
+  </si>
+  <si>
+    <t>成龙我对你真tm失望！想偷偷摸摸捧自己的毒狗儿子？？你做梦！！吸了毒就tm滚远一点！别来大银幕祸害人民！</t>
+  </si>
+  <si>
+    <t>诸葛风行</t>
+  </si>
+  <si>
+    <t>有房祖名的片子，一星无误。这是对禁毒战线上所有英雄的最大侮辱！</t>
+  </si>
+  <si>
+    <t>朕的裤衩去哪了</t>
+  </si>
+  <si>
+    <t>什么鬼，男二是房祖名？虽然我很理解大哥你对儿子的感情。。。但是。。这就有点。。</t>
+  </si>
+  <si>
+    <t>爱.</t>
+  </si>
+  <si>
+    <t>为什么有房祖名</t>
+  </si>
+  <si>
+    <t>锦绣瓶子</t>
+  </si>
+  <si>
+    <t>成龙私心有房祖名戏份还不少。 电影作为一部喜剧挺好的，笑点足，大场面做的也十分刺激紧张，故事情节流畅，主角团人物个性鲜明。本身喜欢喜剧，如果不是龙太子在，会给五星。</t>
+  </si>
+  <si>
+    <t>蝉鸣春风吹</t>
+  </si>
+  <si>
+    <t>年度抗日神剧</t>
+  </si>
+  <si>
+    <t>掉地上的爆米花</t>
+  </si>
+  <si>
+    <t>别的不说，隐瞒房祖名这个有点过分了，而且不是友情出演什么的，而是戏份很多的角色。不是不允许人家知错就改，但是观众也有他们的选择权，他们有权选择接不接受这类明星。不光是这些犯过错的明星，一个普通明星观众也是有喜好的。你这样隐瞒了，就是不对，是诚信问题。</t>
   </si>
 </sst>
 </file>
@@ -1970,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A274" sqref="A274:XFD274"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297:XFD297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
@@ -4997,6 +5132,259 @@
         <v>530</v>
       </c>
     </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A275" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B275" s="2">
+        <v>42728</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A276" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B276" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A277" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B277" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A278" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B278" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A279" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B279" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A280" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B280" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A281" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B281" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A282" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B282" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A283" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B283" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A284" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B284" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A285" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B285" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A286" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B286" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A287" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B287" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A288" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B288" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A289" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B289" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A290" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B290" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A291" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B291" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A292" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B292" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A293" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B293" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A294" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B294" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A295" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B295" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A296" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B296" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A297" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B297" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/learn/tiedaoworst.xlsx
+++ b/learn/tiedaoworst.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="638">
   <si>
     <t>沁言子</t>
   </si>
@@ -1759,13 +1759,234 @@
   </si>
   <si>
     <t>别的不说，隐瞒房祖名这个有点过分了，而且不是友情出演什么的，而是戏份很多的角色。不是不允许人家知错就改，但是观众也有他们的选择权，他们有权选择接不接受这类明星。不光是这些犯过错的明星，一个普通明星观众也是有喜好的。你这样隐瞒了，就是不对，是诚信问题。</t>
+  </si>
+  <si>
+    <t>杨傻宽</t>
+  </si>
+  <si>
+    <t>我靠，房祖名啊，本来以为摆渡人够烂了，这电影更烂</t>
+  </si>
+  <si>
+    <t>扎多</t>
+  </si>
+  <si>
+    <t>弱智的搞笑，关键是，有吸毒犯，事先没有任何说明，这是赤裸裸的欺骗！有人说给他一个机会，但谁给牺牲的缉毒警一个活过来的机会？有人说唐宁也吸毒，但他是做了多少公益才得到观众的原谅？这才多久？成龙和广电都在欺骗！从此成龙粉转路！他是不差我一个粉丝，我也以鄙视他为荣！</t>
+  </si>
+  <si>
+    <t>驴驴</t>
+  </si>
+  <si>
+    <t>QNM的抗日神剧</t>
+  </si>
+  <si>
+    <t>神说你好棒</t>
+  </si>
+  <si>
+    <t>没看，为房祖名打一星</t>
+  </si>
+  <si>
+    <t>默客</t>
+  </si>
+  <si>
+    <t>这是一部把日本人当傻逼、娱乐观众、自娱自乐的电影。</t>
+  </si>
+  <si>
+    <t>懋期</t>
+  </si>
+  <si>
+    <t>涉毒艺人请自重</t>
+  </si>
+  <si>
+    <t>就是你大爷</t>
+  </si>
+  <si>
+    <t>老了，，</t>
+  </si>
+  <si>
+    <t>peterpen</t>
+  </si>
+  <si>
+    <t>呵呵房先生。不送。我只是奇怪，怎么过的审，要不就是瞎眼，要不就是双标，某部门真恶心。</t>
+  </si>
+  <si>
+    <t>无敌小珩</t>
+  </si>
+  <si>
+    <t>当看到房祖名那一刹那 感觉被耍了</t>
+  </si>
+  <si>
+    <t>爱鸟的鸟人</t>
+  </si>
+  <si>
+    <t>抗日神剧啊</t>
+  </si>
+  <si>
+    <t>雪在烧</t>
+  </si>
+  <si>
+    <t>吸毒后能如此高调复出的大概也只有房祖名了，看看有个好爹多重要，简直可以逆转人生啊。反观柯震东，出来走个红毯都被人笑长残了，下面评论一片喊滚的。此刻我也想说，吸毒艺人，滚！</t>
+  </si>
+  <si>
+    <t>云深不知处</t>
+  </si>
+  <si>
+    <t>虽然有一万个理由喜欢你，但是因为房祖名，和这种欲盖弥彰的因为，只能一星。</t>
+  </si>
+  <si>
+    <t>小喵儿的照相馆</t>
+  </si>
+  <si>
+    <t>听说有吸毒狗，站队。除了片方隐瞒房弟弟参演之外，人日也是主因。我没看过电影，就给一星了，怎么样！打算去看摆渡人的，结果也是烂片叫我咋办！</t>
+  </si>
+  <si>
+    <t>懒小欢</t>
+  </si>
+  <si>
+    <t>锌</t>
+  </si>
+  <si>
+    <t>吸毒狗无法容忍</t>
+  </si>
+  <si>
+    <t>天边一朵云</t>
+  </si>
+  <si>
+    <t>凡是把我方拔高化、把鬼子弱智化、把战争儿戏化的抗日神片，都特么只配得一星。 3D渣效果更是让人发指。</t>
+  </si>
+  <si>
+    <t>不吃香菜</t>
+  </si>
+  <si>
+    <t>成龙，房祖名也是大写的辣鸡了。。搞的这一出，暗戳戳的。</t>
+  </si>
+  <si>
+    <t>脱斯卡纳</t>
+  </si>
+  <si>
+    <t>抗日神剧系列…</t>
+  </si>
+  <si>
+    <t>紫薇格格</t>
+  </si>
+  <si>
+    <t>弱智剧情，抗日神剧的电影版吧</t>
+  </si>
+  <si>
+    <t>我喜欢框框</t>
+  </si>
+  <si>
+    <t>老紉</t>
+  </si>
+  <si>
+    <t>抗日神片</t>
+  </si>
+  <si>
+    <t>呆萌君</t>
+  </si>
+  <si>
+    <t>房祖名负分滚粗</t>
+  </si>
+  <si>
+    <t>yool</t>
+  </si>
+  <si>
+    <t>很一般，又一抗日神剧</t>
+  </si>
+  <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>抗日神剧哈哈。</t>
+  </si>
+  <si>
+    <t>半只烟烟半只</t>
+  </si>
+  <si>
+    <r>
+      <t>吸毒鬼滚粗(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ﾉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>￣д￣)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ﾉ</t>
+    </r>
+  </si>
+  <si>
+    <t>古玉</t>
+  </si>
+  <si>
+    <t>为什么会有房祖明?</t>
+  </si>
+  <si>
+    <t>因为吸毒房电影扣3星</t>
+  </si>
+  <si>
+    <t>ToGlory</t>
+  </si>
+  <si>
+    <t>我爱吃仙贝</t>
+  </si>
+  <si>
+    <t>太难看了什么玩意儿啊</t>
+  </si>
+  <si>
+    <t>宫永咲</t>
+  </si>
+  <si>
+    <t>不说房祖名的问题 看看血战钢锯岭 再看看这部</t>
+  </si>
+  <si>
+    <t>梦中格桑</t>
+  </si>
+  <si>
+    <t>吸毒狗狗带吧</t>
+  </si>
+  <si>
+    <t>Tracey溪</t>
+  </si>
+  <si>
+    <t>抗日神剧啊 各种抗战英雄都是一股台普 真的棒棒哒👍剪辑剪的乱七八糟的 导演啊 你是分裂逼吗😠</t>
+  </si>
+  <si>
+    <t>夜如何其</t>
+  </si>
+  <si>
+    <t>居然有房祖名</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,6 +2008,14 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2105,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A297" sqref="A297:XFD297"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="A330" sqref="A330:XFD330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
@@ -5385,6 +5614,369 @@
         <v>575</v>
       </c>
     </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A298" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B298" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A299" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B299" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A300" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B300" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A301" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B301" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A302" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B302" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A303" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B303" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A304" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B304" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A305" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B305" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A306" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B306" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A307" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B307" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A308" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B308" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A309" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B309" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A310" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B310" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A311" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B311" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A312" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B312" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A313" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B313" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A314" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B314" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A315" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B315" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A316" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B316" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A317" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B317" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A318" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B318" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A319" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B319" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A320" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B320" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A321" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B321" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A322" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B322" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A323" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B323" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A324" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B324" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A325" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B325" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A326" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B326" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A327" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B327" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A328" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B328" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A329" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B329" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A330" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B330" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/learn/tiedaoworst.xlsx
+++ b/learn/tiedaoworst.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="970">
   <si>
     <t>沁言子</t>
   </si>
@@ -1980,6 +1980,1006 @@
   </si>
   <si>
     <t>居然有房祖名</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>吸毒为什么还能隐瞒复出做重要角色</t>
+  </si>
+  <si>
+    <t>Amie</t>
+  </si>
+  <si>
+    <t>换导演吧</t>
+  </si>
+  <si>
+    <t>八宝镇魂包子</t>
+  </si>
+  <si>
+    <t>成龙再这么下去真的晚节不保了</t>
+  </si>
+  <si>
+    <t>菊子</t>
+  </si>
+  <si>
+    <t>宣传期只字未提的房祖名竟然也是重要角色，顿时感觉不好了！真会耍心机</t>
+  </si>
+  <si>
+    <t>拉文吹</t>
+  </si>
+  <si>
+    <t>不想看到吸毒的</t>
+  </si>
+  <si>
+    <t>Articuno</t>
+  </si>
+  <si>
+    <t>比谁智商低么...</t>
+  </si>
+  <si>
+    <t>ghuhon_jess</t>
+  </si>
+  <si>
+    <t>针对毒太子给的分，有点儿对不起其他演员了</t>
+  </si>
+  <si>
+    <t>wingsuet</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>黑龙江彭于晏</t>
+  </si>
+  <si>
+    <t>成龙挑战了一次广电的底线和国家法规，这种有吸毒艺人的电影能上映，背后肯定有很肮脏的交易！</t>
+  </si>
+  <si>
+    <t>Sheng</t>
+  </si>
+  <si>
+    <t>吸毒房 + 成蟲電影 = 滾粗</t>
+  </si>
+  <si>
+    <t>槑森淼</t>
+  </si>
+  <si>
+    <t>竟然有吸毒者，所以只好一星差评，虽然跟摆渡人以及长城相比，这部电影算中规中矩了，很成龙风</t>
+  </si>
+  <si>
+    <t>Ogurishun</t>
+  </si>
+  <si>
+    <t>拒绝污点艺人，成龙是什么背景，让广电不封杀这电影，容忍房祖名吸毒。垃圾。</t>
+  </si>
+  <si>
+    <t>尚成岑</t>
+  </si>
+  <si>
+    <t>搞什么房祖名这吸毒的也参演了垃圾。另外，电视上抗日神剧够多了</t>
+  </si>
+  <si>
+    <t>Zo0om</t>
+  </si>
+  <si>
+    <t>房祖名是男二。。</t>
+  </si>
+  <si>
+    <t>豆瓣豆瓣酱</t>
+  </si>
+  <si>
+    <t>都不知道有毒太子在演戏，镜头还这么多，倒胃口！</t>
+  </si>
+  <si>
+    <t>海风冷冷的吹不</t>
+  </si>
+  <si>
+    <t>虽然影片宣传时隐去了房祖名，但做为一名曾经的吸毒者已经接受了法律的制裁，社会就理应给他一个改过的机会。只要不再重蹈覆辙，误入歧途有好！</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>强行搞笑，给王凯一颗星，成龙一颗星，吸毒扣一星，表情包演的还是自己啊尴尬，</t>
+  </si>
+  <si>
+    <t>a小叔</t>
+  </si>
+  <si>
+    <t>没管好吸毒的</t>
+  </si>
+  <si>
+    <t>任小天</t>
+  </si>
+  <si>
+    <t>不知道后面的几个智障在笑个卵子</t>
+  </si>
+  <si>
+    <t>迷惘</t>
+  </si>
+  <si>
+    <t>困得我要睡着了</t>
+  </si>
+  <si>
+    <t>sunice1314</t>
+  </si>
+  <si>
+    <t>成龙老了，可惜我凯。</t>
+  </si>
+  <si>
+    <t>FUUU</t>
+  </si>
+  <si>
+    <t>无聊！！！笑点尴尬！！！浪费时间！！！</t>
+  </si>
+  <si>
+    <t>萧君萧晓</t>
+  </si>
+  <si>
+    <t>注水的毒太子电影一星不谢</t>
+  </si>
+  <si>
+    <t>正义的使者</t>
+  </si>
+  <si>
+    <t>父爱如山 套路 还行</t>
+  </si>
+  <si>
+    <t>父爱如山！</t>
+  </si>
+  <si>
+    <t>千寻亿选</t>
+  </si>
+  <si>
+    <t>Toni</t>
+  </si>
+  <si>
+    <t>为什么不能打负分？隐瞒吸毒者、欺诈消费者、脑残剧情、浪费时间、浪费金钱、就不能是负分？</t>
+  </si>
+  <si>
+    <t>whoph</t>
+  </si>
+  <si>
+    <t>抗日神剧加小丑闹剧加流氓大哥加吸毒儿子。</t>
+  </si>
+  <si>
+    <t>Yome✖</t>
+  </si>
+  <si>
+    <t>日軍要真的這智商 中國哪裡需要抗戰8年 8天都不用吧...</t>
+  </si>
+  <si>
+    <t>幻莘魔瞳</t>
+  </si>
+  <si>
+    <t>看完血战钢锯岭，再看铁道飞虎，真是觉得讽刺与悲哀，弱化曾经侵略中国的日本人，真是对抗战英雄与死难者的亵渎！这也是我无比排斥国产抗日神剧的根本原因！</t>
+  </si>
+  <si>
+    <t>壬者</t>
+  </si>
+  <si>
+    <t>羞愤难当！成龙套路包袱普通话永远维持上世纪九十年代水平不说，这次竟然为了给吸毒儿子出路在爱国电影里瞒天过海？！王大陆一口台湾饰演受伤的八路军，是以为大家都不会说普通话？王凯一脸严肃地演喜剧，包袱抖得太沉重，我看着都累。竟然只有黄子韬略显正常画风，得益于他的全网表情包。</t>
+  </si>
+  <si>
+    <t>曜</t>
+  </si>
+  <si>
+    <t>有一种烂叫你说不出它烂在哪里，却让你在观影半小时后如坐针毡的烂。</t>
+  </si>
+  <si>
+    <t>光之</t>
+  </si>
+  <si>
+    <t>写的鬼子跟弱智一样。王大陆怎么活下来的？还有王大陆作为八路军牙齿怎么那么白</t>
+  </si>
+  <si>
+    <t>三文鱼</t>
+  </si>
+  <si>
+    <t>什么鬼</t>
+  </si>
+  <si>
+    <t>海蓝</t>
+  </si>
+  <si>
+    <t>这片儿里有房祖名！记住！吸毒的！</t>
+  </si>
+  <si>
+    <t>无欲则刚</t>
+  </si>
+  <si>
+    <t>竟然有房祖名</t>
+  </si>
+  <si>
+    <t>老邓..</t>
+  </si>
+  <si>
+    <t>一星给太子</t>
+  </si>
+  <si>
+    <t>欧耶！</t>
+  </si>
+  <si>
+    <t>pewter</t>
+  </si>
+  <si>
+    <t>特别尴尬。</t>
+  </si>
+  <si>
+    <t>= =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竟然有房祖名?</t>
+  </si>
+  <si>
+    <t>黄花菜哪有春天</t>
+  </si>
+  <si>
+    <t>2016.12.26.好尴尬的抗日神剧。全场人从头笑到尾，我完全get不到笑点！</t>
+  </si>
+  <si>
+    <t>qzuser</t>
+  </si>
+  <si>
+    <t>烂就一个字</t>
+  </si>
+  <si>
+    <t>哥斯拉</t>
+  </si>
+  <si>
+    <t>房毒名是隐藏男二号 就这样</t>
+  </si>
+  <si>
+    <t>别·疼</t>
+  </si>
+  <si>
+    <t>献给注水的房事龙</t>
+  </si>
+  <si>
+    <t>愿我坚持有意义</t>
+  </si>
+  <si>
+    <t>成龙个完犊子玩意</t>
+  </si>
+  <si>
+    <t>泠筠</t>
+  </si>
+  <si>
+    <t>负分是给暗搓搓占有很大戏份某位吸毒演员。我凯凯王手真好看，黄子韬也蛮可爱的。</t>
+  </si>
+  <si>
+    <t>msazhou</t>
+  </si>
+  <si>
+    <t>吸毒还能拍电影，不愧是星二代，倒过来还要说网友故意打低分？严重破坏了国产电影环境？？？呵呵</t>
+  </si>
+  <si>
+    <t>Ubique</t>
+  </si>
+  <si>
+    <t>没看。</t>
+  </si>
+  <si>
+    <t>ccp</t>
+  </si>
+  <si>
+    <t>给差评法律不允许吗</t>
+  </si>
+  <si>
+    <t>拉拉手唱唱歌</t>
+  </si>
+  <si>
+    <t>电影挺不错的啊，给一星没毛病。</t>
+  </si>
+  <si>
+    <t>壹贰得贰</t>
+  </si>
+  <si>
+    <t>全部一星。</t>
+  </si>
+  <si>
+    <t>安东</t>
+  </si>
+  <si>
+    <t>提前打了个一星，还真是一点都不冤枉你。</t>
+  </si>
+  <si>
+    <t>七美（成都）</t>
+  </si>
+  <si>
+    <t>我不喜欢，我是素质差的豆瓣网民，接受人民批评</t>
+  </si>
+  <si>
+    <t>洞里火车</t>
+  </si>
+  <si>
+    <t>沙壁电影还不让人评论了，来约谈我吧</t>
+  </si>
+  <si>
+    <t>密思凡</t>
+  </si>
+  <si>
+    <t>我的天，日报不顾吸毒龙太子，反倒说人民不行，我的三观哇！！！</t>
+  </si>
+  <si>
+    <t>醉西风</t>
+  </si>
+  <si>
+    <t>瑟瑟发抖的打了1分</t>
+  </si>
+  <si>
+    <t>hamming</t>
+  </si>
+  <si>
+    <t>坚决差评</t>
+  </si>
+  <si>
+    <t>乐逸</t>
+  </si>
+  <si>
+    <t>有房祖名！！骗子！！</t>
+  </si>
+  <si>
+    <t>坦途</t>
+  </si>
+  <si>
+    <t>老子看什么电影，你要管。 老子看了电影之后，要打多少分，你也要管。</t>
+  </si>
+  <si>
+    <t>四十萬莉</t>
+  </si>
+  <si>
+    <t>以实际行动反抗污点艺人</t>
+  </si>
+  <si>
+    <t>正切函数</t>
+  </si>
+  <si>
+    <t>电影拍那么烂，还不允许观众打一星吗？其实已经不是电影的问题了。成龙大哥你这么红专，怎么脸还是那么黑啊？</t>
+  </si>
+  <si>
+    <t>杀手的小学同学</t>
+  </si>
+  <si>
+    <t>我不是针对谁，我只想说在座的各位都是——垃圾</t>
+  </si>
+  <si>
+    <t>少吃多动早点睡</t>
+  </si>
+  <si>
+    <t>戏还成，典型成龙喜剧，吸毒贩毒人员参演都还能上映，论一个好爹的重要性</t>
+  </si>
+  <si>
+    <t>安安安先生</t>
+  </si>
+  <si>
+    <t>烂片还不能让人说了？</t>
+  </si>
+  <si>
+    <t>cedricia</t>
+  </si>
+  <si>
+    <t>父爱如山 呵呵哒</t>
+  </si>
+  <si>
+    <t>旨鷊</t>
+  </si>
+  <si>
+    <t>伤害你国电影产业，人人有责。</t>
+  </si>
+  <si>
+    <t>LeonKenndy</t>
+  </si>
+  <si>
+    <t>抱歉，因为政治正确，给了五星，别介意，什么？一星？抱歉，手滑。</t>
+  </si>
+  <si>
+    <t>回头的小妖精</t>
+  </si>
+  <si>
+    <t>恶意差评</t>
+  </si>
+  <si>
+    <t>kindsos</t>
+  </si>
+  <si>
+    <t>一星！一星！一星！</t>
+  </si>
+  <si>
+    <t>巴黎之火</t>
+  </si>
+  <si>
+    <t>打一星咋的了？吃你家大米了？</t>
+  </si>
+  <si>
+    <t>Leann</t>
+  </si>
+  <si>
+    <t>一星为净！</t>
+  </si>
+  <si>
+    <t>kom.S、</t>
+  </si>
+  <si>
+    <t>拒绝黄赌毒。。。</t>
+  </si>
+  <si>
+    <t>秦九懒洋洋</t>
+  </si>
+  <si>
+    <t>leen</t>
+  </si>
+  <si>
+    <t>就冲瞒天过海他儿子的事情就必须一分</t>
+  </si>
+  <si>
+    <t>粒小喵</t>
+  </si>
+  <si>
+    <t>吸毒还来赚形象钱就酱</t>
+  </si>
+  <si>
+    <t>佐藤健的痣</t>
+  </si>
+  <si>
+    <t>宣传完全不带房祖名差评！看了电影，戏份不弱于3番王凯，和成龙争论鼻子那里真是有病……强行找梗。剧情衔接略生硬，一星给王凯和韬韬，一星给动作戏份，一星给插曲。</t>
+  </si>
+  <si>
+    <t>奔跑的猪</t>
+  </si>
+  <si>
+    <t>吸过毒的明星出来如何如何，都不值得原谅，为了培养自己的下一代，脸都不要了吗？</t>
+  </si>
+  <si>
+    <t>大银河</t>
+  </si>
+  <si>
+    <t>这很21世纪的成龙。为了带自己儿子也是拼了</t>
+  </si>
+  <si>
+    <t>TwT</t>
+  </si>
+  <si>
+    <t>差评不会毁了电影产业，而烂片和烂人会</t>
+  </si>
+  <si>
+    <t>Viva La Vida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趁还有机会打一星的时候，赶紧打了，免得以后国产电影五星起步，五星以下就是不爱国┑(￣Д ￣)┍</t>
+  </si>
+  <si>
+    <t>bearjess</t>
+  </si>
+  <si>
+    <t>国产烂片，根本就没用心去拍，糊弄人赚钱工具，该</t>
+  </si>
+  <si>
+    <t>木瑾之</t>
+  </si>
+  <si>
+    <t>...房事龙你好。</t>
+  </si>
+  <si>
+    <t>武陵渔隐</t>
+  </si>
+  <si>
+    <t>成龙妄想带着吸毒儿子的洗白之作，的确用心良苦。观影时没想太多，但冷静下来后觉得整部电影透着对电影的不尊重，对故人的亵渎。一群人给你儿子的过错垫背，只为扶他重新上位。你一把老骨头能折腾多久？请专业一点，对得起你初时拍电影的初衷。</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>有房祖名就应该0分！公众人物犯了大错，就应该禁止他们再出现在公众面前，继续当明星。法律对他们的惩罚是一回事，行业自律的惩罚和公众舆论的惩罚是另一回事。有成龙那样的父亲，做什么不行，为什么要挑战公众底线又跳出来演电影？你让那些因为嫖娼、甚至同性恋被封杀的艺人情何以堪？！</t>
+  </si>
+  <si>
+    <t>noname</t>
+  </si>
+  <si>
+    <t>这是战争片？</t>
+  </si>
+  <si>
+    <t>最肯忘却古人诗</t>
+  </si>
+  <si>
+    <t>既然官方钦定了大家刷票，那为啥不刷呢？</t>
+  </si>
+  <si>
+    <t>一只遛狗的熊</t>
+  </si>
+  <si>
+    <t>给毒星呵呵哒</t>
+  </si>
+  <si>
+    <t>spartan117</t>
+  </si>
+  <si>
+    <t>成龙带着房祖名复出的电影，特地选了一个绝对不会有问题的题材，结果就成了升级版的《举起手来》，真没有想到多年以后还会有人做这种事。之所以还有二星是因为我还是笑了和里面的自我调侃，还有很久以前记得自己看过一部叫《刺陵》的电影。</t>
+  </si>
+  <si>
+    <t>股行者</t>
+  </si>
+  <si>
+    <t>成龙是SB？</t>
+  </si>
+  <si>
+    <t>幕小后</t>
+  </si>
+  <si>
+    <t>屎一样的东西。</t>
+  </si>
+  <si>
+    <t>金权</t>
+  </si>
+  <si>
+    <t>垃圾片。</t>
+  </si>
+  <si>
+    <t>老锅</t>
+  </si>
+  <si>
+    <t>为了日人民再次一星！</t>
+  </si>
+  <si>
+    <t>猫记</t>
+  </si>
+  <si>
+    <t>看了新闻专门来打一星点我</t>
+  </si>
+  <si>
+    <t>袁湘琴</t>
+  </si>
+  <si>
+    <t>会不会被封号啊？好担心。。</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>为了蹭热点刷一星</t>
+  </si>
+  <si>
+    <t>憨八嘎</t>
+  </si>
+  <si>
+    <t>公民义务</t>
+  </si>
+  <si>
+    <t>凸凸</t>
+  </si>
+  <si>
+    <t>可惜不能打负分！</t>
+  </si>
+  <si>
+    <t>花影暖</t>
+  </si>
+  <si>
+    <t>一星收好</t>
+  </si>
+  <si>
+    <t>凤凰座流星雨</t>
+  </si>
+  <si>
+    <t>房祖名该杀！</t>
+  </si>
+  <si>
+    <t>..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shady</t>
+  </si>
+  <si>
+    <t>據説這是支豚最後一次團結起來反擊國家機器的機會，大家不要錯過。</t>
+  </si>
+  <si>
+    <t>Liberty。</t>
+  </si>
+  <si>
+    <t>不向恶势力低头！</t>
+  </si>
+  <si>
+    <t>发飙的大智</t>
+  </si>
+  <si>
+    <t>有房祖名，而且之前宣传的时候没说，就冲着这一点，零分。</t>
+  </si>
+  <si>
+    <t>袁威</t>
+  </si>
+  <si>
+    <t>由于央妈智障，以后凡是烂片都只给一星</t>
+  </si>
+  <si>
+    <t>地球人</t>
+  </si>
+  <si>
+    <t>良民日爆真好看</t>
+  </si>
+  <si>
+    <t>robbin</t>
+  </si>
+  <si>
+    <t>让你们欺负豆瓣！</t>
+  </si>
+  <si>
+    <t>懒人维维</t>
+  </si>
+  <si>
+    <t>难看死了，还有吸毒的人参加演出，是鼓励我们我们吸毒呢，说好的劣迹艺人不用呢</t>
+  </si>
+  <si>
+    <t>会飞的巴斯光年</t>
+  </si>
+  <si>
+    <t>嗯哼，我就打一星</t>
+  </si>
+  <si>
+    <t>抵制圈钱烂片</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>人民网新年快乐！</t>
+  </si>
+  <si>
+    <t>老衲法号梦遗</t>
+  </si>
+  <si>
+    <t>为了人民日爆，冲啊</t>
+  </si>
+  <si>
+    <t>金三两</t>
+  </si>
+  <si>
+    <t>滚</t>
+  </si>
+  <si>
+    <t>零下十亿度</t>
+  </si>
+  <si>
+    <t>夏无敌Woody</t>
+  </si>
+  <si>
+    <t>真鸡巴难看，一群大傻屌。皇上带着太子玩儿票，什么东西。</t>
+  </si>
+  <si>
+    <t>笑死为止</t>
+  </si>
+  <si>
+    <t>恶意伤害中国电影产业</t>
+  </si>
+  <si>
+    <t>凉请</t>
+  </si>
+  <si>
+    <t>最近豆瓣被喷 我很不爽</t>
+  </si>
+  <si>
+    <t>妙妙&amp;呆呆</t>
+  </si>
+  <si>
+    <t>电影挺好看，报纸不咋地，就酱</t>
+  </si>
+  <si>
+    <t>小灵仙儿</t>
+  </si>
+  <si>
+    <t>一星送给房祖名</t>
+  </si>
+  <si>
+    <t>BlankYoung</t>
+  </si>
+  <si>
+    <t>祖名啊，男二的感觉好吗</t>
+  </si>
+  <si>
+    <t>大烟枪</t>
+  </si>
+  <si>
+    <t>实行《影评基本法》后的第一票。</t>
+  </si>
+  <si>
+    <t>knights</t>
+  </si>
+  <si>
+    <t>为了儿子真是用心良苦啊</t>
+  </si>
+  <si>
+    <t>不回头</t>
+  </si>
+  <si>
+    <t>ccav 忘我豆瓣之心不死</t>
+  </si>
+  <si>
+    <t>肥嘟嘟左卫门佐</t>
+  </si>
+  <si>
+    <t>一星为净</t>
+  </si>
+  <si>
+    <t>遥远</t>
+  </si>
+  <si>
+    <t>这片子有房祖名，吸毒者就这么复出了？有成龙为了电影炒作痛批某演员耍大牌之前能不能先管教好自己儿子，观众事前应该有之情权吧，为什么不告诉观众有房祖名参演。对得起缉毒警察的付出吗。就单纯影片来讲也是烂片，恶趣味搞笑，老套路，老梗，真的笑不出来</t>
+  </si>
+  <si>
+    <t>水神</t>
+  </si>
+  <si>
+    <t>為了言論自由</t>
+  </si>
+  <si>
+    <t>冷娃</t>
+  </si>
+  <si>
+    <t>滚你妈逼。</t>
+  </si>
+  <si>
+    <t>糯米丸子</t>
+  </si>
+  <si>
+    <t>听说有吸毒先锋房祖名，友情一星不谢</t>
+  </si>
+  <si>
+    <t>荆轲刺秦王</t>
+  </si>
+  <si>
+    <t>真特码难看！！！</t>
+  </si>
+  <si>
+    <t>lair2lie</t>
+  </si>
+  <si>
+    <t>毒星房祖名演抗战片男二…………⊙_⊙</t>
+  </si>
+  <si>
+    <t>剑岚成旺</t>
+  </si>
+  <si>
+    <t>看到吸毒者男二号</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>就给一星，怎么了</t>
+  </si>
+  <si>
+    <t>还原精灵</t>
+  </si>
+  <si>
+    <t>据说打一星会被跨省？</t>
+  </si>
+  <si>
+    <t>aaron</t>
+  </si>
+  <si>
+    <t>烂！烂片！</t>
+  </si>
+  <si>
+    <t>Saint丶💤</t>
+  </si>
+  <si>
+    <t>为了吸毒者！为了人民！我来站个队，一星不谢。</t>
+  </si>
+  <si>
+    <t>希希</t>
+  </si>
+  <si>
+    <t>就冲针对豆瓣的所谓质疑，给烂片都打个低分！不要侮辱群众的审美能力！</t>
+  </si>
+  <si>
+    <t>梅雪遥芳</t>
+  </si>
+  <si>
+    <t>就是一星</t>
+  </si>
+  <si>
+    <t>sei</t>
+  </si>
+  <si>
+    <t>吸毒还来演电影，人民日版也一星滚粗</t>
+  </si>
+  <si>
+    <t>莫说我帅</t>
+  </si>
+  <si>
+    <t>垃圾，吸毒的，死开</t>
+  </si>
+  <si>
+    <t>艾尔家的星期一</t>
+  </si>
+  <si>
+    <t>exm????有房祖名！！！！我以为我跑错了影厅！！！！！！！</t>
+  </si>
+  <si>
+    <t>此非彼·</t>
+  </si>
+  <si>
+    <t>滚粗，人民日报！</t>
+  </si>
+  <si>
+    <t>曾是年华</t>
+  </si>
+  <si>
+    <t>打一分是因为对吸毒者零容忍</t>
+  </si>
+  <si>
+    <t>苏酒</t>
+  </si>
+  <si>
+    <t>一星给毒太子，上映前完全不知道竟然有他，戏份还这么重，大哥果然是大哥，恶心死了，以后所有片子一星预定</t>
+  </si>
+  <si>
+    <t>夏侯阿布</t>
+  </si>
+  <si>
+    <t>还锁号吗</t>
+  </si>
+  <si>
+    <t>九点半</t>
+  </si>
+  <si>
+    <t>我没看 我就想打一星</t>
+  </si>
+  <si>
+    <t>小神仙</t>
+  </si>
+  <si>
+    <t>奉命前来表明对烂片的态度</t>
+  </si>
+  <si>
+    <t>松松小可爱</t>
+  </si>
+  <si>
+    <t>让房祖名这种人复出就是对中国电影最大的侮辱。</t>
+  </si>
+  <si>
+    <t>dxpete_bz</t>
+  </si>
+  <si>
+    <t>一❤一意为人民fuck爆服务</t>
+  </si>
+  <si>
+    <t>Siegismund</t>
+  </si>
+  <si>
+    <t>一颗星，没毛病。</t>
+  </si>
+  <si>
+    <t>威震天天</t>
+  </si>
+  <si>
+    <t>就不看 就差评 咋地吧</t>
+  </si>
+  <si>
+    <t>神探年糕糕</t>
+  </si>
+  <si>
+    <t>有房祖名还能上映，还不让差评，赵老爷牛逼</t>
+  </si>
+  <si>
+    <t>菰城笑笑</t>
+  </si>
+  <si>
+    <t>我是真的看过，笑点略尴尬。本来不准备打分了。既然人日发话，实事求是，打个两星，不多也不少。</t>
+  </si>
+  <si>
+    <t>以启山林</t>
+  </si>
+  <si>
+    <t>怒刷一分！</t>
+  </si>
+  <si>
+    <t>欲说还羞</t>
+  </si>
+  <si>
+    <t>老子没看过，但就是崇洋媚外！</t>
+  </si>
+  <si>
+    <t>没看，不看，我不理智。</t>
+  </si>
+  <si>
+    <t>飞雨</t>
+  </si>
+  <si>
+    <t>特意差评来了，咋了？不行？</t>
+  </si>
+  <si>
+    <t>波zai</t>
+  </si>
+  <si>
+    <t>没看，一分献给中国电影生态环境。</t>
+  </si>
+  <si>
+    <t>二婶子不得不</t>
+  </si>
+  <si>
+    <t>吸毒狗带</t>
+  </si>
+  <si>
+    <t>yata</t>
+  </si>
+  <si>
+    <t>我给电影打几分关人民日报鸟事？</t>
+  </si>
+  <si>
+    <t>萌吗</t>
+  </si>
+  <si>
+    <t>还真没看过，听说有吸毒不挂名明星？豆瓣为啥不能打零分？</t>
+  </si>
+  <si>
+    <t>月出皎兮</t>
+  </si>
+  <si>
+    <t>吸毒演员狗带。</t>
+  </si>
+  <si>
+    <t>羁绊咯</t>
+  </si>
+  <si>
+    <t>没有看，就是打一星</t>
+  </si>
+  <si>
+    <t>咩咩</t>
+  </si>
+  <si>
+    <t>没看过 怎么没有负分</t>
+  </si>
+  <si>
+    <t>木月</t>
+  </si>
+  <si>
+    <t>若批评不自由 则赞美无意义！！</t>
+  </si>
+  <si>
+    <t>约翰</t>
+  </si>
+  <si>
+    <t>声援豆瓣</t>
+  </si>
+  <si>
+    <t>sunny||小桑</t>
+  </si>
+  <si>
+    <t>吸毒零容忍</t>
+  </si>
+  <si>
+    <t>Alessia</t>
+  </si>
+  <si>
+    <t>吸毒仔还想洗白</t>
+  </si>
+  <si>
+    <t>银铁</t>
+  </si>
+  <si>
+    <t>是这样的，豆瓣崇洋媚外，人民日爆一语中的，样板戏赛高</t>
+  </si>
+  <si>
+    <t>已注销</t>
+  </si>
+  <si>
+    <t>别的不说，影片里用了吸毒的人就只能打零分，可惜没有零星</t>
+  </si>
+  <si>
+    <t>svnnynight</t>
+  </si>
+  <si>
+    <t>日人民保</t>
+  </si>
+  <si>
+    <t>760 mm Hg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我没看，我就想打个一星。</t>
   </si>
 </sst>
 </file>
@@ -2334,10 +3334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A330" sqref="A330:XFD330"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:XFD500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
@@ -5977,6 +6977,1876 @@
         <v>637</v>
       </c>
     </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A331" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B331" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A332" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B332" s="2">
+        <v>42729</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A333" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B333" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A334" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B334" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A335" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B335" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A336" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B336" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A337" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B337" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A338" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B338" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A339" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B339" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A340" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B340" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A341" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B341" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A342" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B342" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A343" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B343" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A344" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B344" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A345" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B345" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A346" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B346" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A347" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B347" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A348" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B348" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A349" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B349" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A350" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B350" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A351" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B351" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A352" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B352" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A353" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B353" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A354" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B354" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A355" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B355" s="2">
+        <v>42730</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A356" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B356" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A357" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B357" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A358" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B358" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A359" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B359" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A360" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B360" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A361" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B361" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="10.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A362" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B362" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A363" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B363" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A364" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B364" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A365" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B365" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A366" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B366" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A367" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B367" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A368" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B368" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A369" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B369" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A370" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B370" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A371" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B371" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A372" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B372" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A373" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B373" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A374" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B374" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A375" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B375" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A376" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B376" s="2">
+        <v>42731</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A377" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B377" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A378" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B378" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A379" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B379" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A380" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B380" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A381" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B381" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A382" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B382" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A383" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B383" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A384" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B384" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A385" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B385" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A386" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B386" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A387" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B387" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A388" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B388" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A389" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B389" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A390" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B390" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A391" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B391" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A392" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B392" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A393" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B393" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A394" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B394" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A395" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B395" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A396" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B396" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A397" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B397" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A398" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B398" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A399" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B399" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A400" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B400" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A401" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B401" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A402" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B402" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A403" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B403" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A404" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B404" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A405" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B405" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A406" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B406" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A407" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B407" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A408" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B408" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A409" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B409" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A410" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B410" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A411" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B411" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A412" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B412" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A413" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B413" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A414" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B414" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A415" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B415" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A416" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B416" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A417" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B417" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A418" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B418" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A419" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B419" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A420" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B420" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A421" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B421" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A422" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B422" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A423" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B423" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A424" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B424" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A425" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B425" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A426" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B426" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A427" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B427" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A428" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B428" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A429" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B429" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A430" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B430" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A431" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B431" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A432" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B432" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A433" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B433" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A434" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B434" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A435" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B435" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A436" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B436" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A437" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B437" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A438" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B438" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A439" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B439" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A440" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B440" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A441" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B441" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A442" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B442" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A443" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B443" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A444" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B444" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A445" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B445" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A446" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B446" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A447" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B447" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A448" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B448" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A449" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B449" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A450" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B450" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A451" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B451" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A452" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B452" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A453" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B453" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A454" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B454" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A455" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B455" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A456" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B456" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A457" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B457" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A458" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B458" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A459" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B459" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A460" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B460" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A461" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B461" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A462" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B462" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A463" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B463" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A464" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B464" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A465" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B465" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A466" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B466" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A467" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B467" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A468" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B468" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A469" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B469" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A470" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B470" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A471" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B471" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A472" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B472" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A473" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B473" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A474" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B474" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A475" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B475" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A476" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B476" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A477" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B477" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A478" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B478" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A479" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B479" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A480" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B480" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A481" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B481" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A482" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B482" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A483" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B483" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A484" s="1">
+        <v>813</v>
+      </c>
+      <c r="B484" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A485" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B485" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A486" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B486" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A487" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B487" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A488" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B488" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A489" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B489" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A490" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B490" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A491" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B491" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A492" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B492" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A493" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B493" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A494" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B494" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A495" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B495" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A496" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B496" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A497" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B497" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A498" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B498" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A499" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B499" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A500" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B500" s="2">
+        <v>42732</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/learn/tiedaoworst.xlsx
+++ b/learn/tiedaoworst.xlsx
@@ -2986,7 +2986,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3018,6 +3018,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3041,7 +3057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3052,6 +3068,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3336,7 +3361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
       <selection activeCell="A500" sqref="A500:XFD500"/>
     </sheetView>
   </sheetViews>
@@ -8836,14 +8861,14 @@
         <v>967</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A500" s="1" t="s">
+    <row r="500" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A500" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="B500" s="2">
-        <v>42732</v>
-      </c>
-      <c r="C500" s="1" t="s">
+      <c r="B500" s="5">
+        <v>42732</v>
+      </c>
+      <c r="C500" s="4" t="s">
         <v>969</v>
       </c>
     </row>
